--- a/sriramModel-nelson-atypical-patientID_58-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_58-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.115229955153601</v>
+        <v>1.076340162406087</v>
       </c>
       <c r="C2">
-        <v>1.028699336163318</v>
+        <v>1.168146385789493</v>
       </c>
       <c r="D2">
-        <v>1.13137292375734</v>
+        <v>1.279347412049175</v>
       </c>
       <c r="E2">
-        <v>1.073672997711875</v>
+        <v>1.139588375219438</v>
       </c>
       <c r="F2">
-        <v>0.9740384961899097</v>
+        <v>1.285107456205307</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.229339646179704</v>
+        <v>1.152566023395185</v>
       </c>
       <c r="C3">
-        <v>1.057132265859027</v>
+        <v>1.336120937007118</v>
       </c>
       <c r="D3">
-        <v>1.261316254659463</v>
+        <v>1.557150268628792</v>
       </c>
       <c r="E3">
-        <v>1.14692249380441</v>
+        <v>1.279058203885337</v>
       </c>
       <c r="F3">
-        <v>0.9483524679090233</v>
+        <v>1.56948413797745</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.34238688508696</v>
+        <v>1.22867894938705</v>
       </c>
       <c r="C4">
-        <v>1.085304319348024</v>
+        <v>1.503929959675082</v>
       </c>
       <c r="D4">
-        <v>1.389921490993958</v>
+        <v>1.833517179830307</v>
       </c>
       <c r="E4">
-        <v>1.21973845463936</v>
+        <v>1.418412469198265</v>
       </c>
       <c r="F4">
-        <v>0.9229510141790052</v>
+        <v>1.853203150019895</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.454424516184027</v>
+        <v>1.304680267871966</v>
       </c>
       <c r="C5">
-        <v>1.113220833833896</v>
+        <v>1.671579381275274</v>
       </c>
       <c r="D5">
-        <v>1.517270674287371</v>
+        <v>2.10854511598323</v>
       </c>
       <c r="E5">
-        <v>1.292111238480362</v>
+        <v>1.557654031579146</v>
       </c>
       <c r="F5">
-        <v>0.8978435725061489</v>
+        <v>2.136327022175434</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.565501089445074</v>
+        <v>1.380571266095484</v>
       </c>
       <c r="C6">
-        <v>1.140886961346927</v>
+        <v>1.839074790597548</v>
       </c>
       <c r="D6">
-        <v>1.64343757869201</v>
+        <v>2.382321180615355</v>
       </c>
       <c r="E6">
-        <v>1.364031516354542</v>
+        <v>1.696785637325241</v>
       </c>
       <c r="F6">
-        <v>0.8730399655333415</v>
+        <v>2.418909451860613</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.67566131701461</v>
+        <v>1.456353191605963</v>
       </c>
       <c r="C7">
-        <v>1.168307680209158</v>
+        <v>2.00642145021272</v>
       </c>
       <c r="D7">
-        <v>1.768488869390923</v>
+        <v>2.65492384940611</v>
       </c>
       <c r="E7">
-        <v>1.435490223829771</v>
+        <v>1.835809922008805</v>
       </c>
       <c r="F7">
-        <v>0.8485503875219758</v>
+        <v>2.700997101574956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.784946455423612</v>
+        <v>1.532027253235016</v>
       </c>
       <c r="C8">
-        <v>1.195487797208962</v>
+        <v>2.173624325994611</v>
       </c>
       <c r="D8">
-        <v>1.892485081626594</v>
+        <v>2.926424091180885</v>
       </c>
       <c r="E8">
-        <v>1.5064785163735</v>
+        <v>1.974729416564106</v>
       </c>
       <c r="F8">
-        <v>0.8243854109223164</v>
+        <v>2.982630681829425</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.893394641408523</v>
+        <v>1.607594620284628</v>
       </c>
       <c r="C9">
-        <v>1.222431957776869</v>
+        <v>2.340688109700369</v>
       </c>
       <c r="D9">
-        <v>2.015481291947413</v>
+        <v>3.196886405430651</v>
       </c>
       <c r="E9">
-        <v>1.576987723780454</v>
+        <v>2.113546552641157</v>
       </c>
       <c r="F9">
-        <v>0.8005559875415776</v>
+        <v>3.263845946071551</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.001041250717503</v>
+        <v>1.683056423265735</v>
       </c>
       <c r="C10">
-        <v>1.249144652731002</v>
+        <v>2.507617235058182</v>
       </c>
       <c r="D10">
-        <v>2.137527786666799</v>
+        <v>3.466369554771361</v>
       </c>
       <c r="E10">
-        <v>1.647009308706442</v>
+        <v>2.252263666968555</v>
       </c>
       <c r="F10">
-        <v>0.7770734430508245</v>
+        <v>3.544674481026888</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.107919169092033</v>
+        <v>1.758413754295195</v>
       </c>
       <c r="C11">
-        <v>1.275630224163768</v>
+        <v>2.674415893823087</v>
       </c>
       <c r="D11">
-        <v>2.258670639007246</v>
+        <v>3.734927196772416</v>
       </c>
       <c r="E11">
-        <v>1.716534869066539</v>
+        <v>2.390883005624706</v>
       </c>
       <c r="F11">
-        <v>0.7539494670123355</v>
+        <v>3.825144343880364</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.214058993958042</v>
+        <v>1.833667667274515</v>
       </c>
       <c r="C12">
-        <v>1.301892870691536</v>
+        <v>2.84108805192928</v>
       </c>
       <c r="D12">
-        <v>2.378952161927598</v>
+        <v>4.002608484150169</v>
       </c>
       <c r="E12">
-        <v>1.785556039437377</v>
+        <v>2.529406728113351</v>
       </c>
       <c r="F12">
-        <v>0.7311960980339842</v>
+        <v>4.105280541813729</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.319489233071507</v>
+        <v>1.908819177910273</v>
       </c>
       <c r="C13">
-        <v>1.327936653528543</v>
+        <v>3.007637459447265</v>
       </c>
       <c r="D13">
-        <v>2.498411292517251</v>
+        <v>4.269458582922513</v>
       </c>
       <c r="E13">
-        <v>1.854064465259902</v>
+        <v>2.667836909780615</v>
       </c>
       <c r="F13">
-        <v>0.7088257036394651</v>
+        <v>4.38510542604339</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.424236493919502</v>
+        <v>1.983869263681992</v>
       </c>
       <c r="C14">
-        <v>1.35376549916396</v>
+        <v>3.174067669876067</v>
       </c>
       <c r="D14">
-        <v>2.617083909457054</v>
+        <v>4.535519098018533</v>
       </c>
       <c r="E14">
-        <v>1.922051787853259</v>
+        <v>2.806175547271936</v>
       </c>
       <c r="F14">
-        <v>0.6868509488569086</v>
+        <v>4.664639080912954</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.528325663090596</v>
+        <v>2.058818863735978</v>
       </c>
       <c r="C15">
-        <v>1.379383204394222</v>
+        <v>3.340382051867158</v>
       </c>
       <c r="D15">
-        <v>2.735003155910555</v>
+        <v>4.800828429927134</v>
       </c>
       <c r="E15">
-        <v>1.989509619215304</v>
+        <v>2.944424561858685</v>
       </c>
       <c r="F15">
-        <v>0.6652847692512849</v>
+        <v>4.943899652160038</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.631780028905767</v>
+        <v>2.133668878721798</v>
       </c>
       <c r="C16">
-        <v>1.404793441577568</v>
+        <v>3.506583796026021</v>
       </c>
       <c r="D16">
-        <v>2.85219972524719</v>
+        <v>5.065422091945624</v>
       </c>
       <c r="E16">
-        <v>2.056429502784119</v>
+        <v>3.082585801298607</v>
       </c>
       <c r="F16">
-        <v>0.6441403232987646</v>
+        <v>5.222903573991394</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.734621439377194</v>
+        <v>2.20842017056073</v>
       </c>
       <c r="C17">
-        <v>1.429999762962685</v>
+        <v>3.672675923986212</v>
       </c>
       <c r="D17">
-        <v>2.968702071946783</v>
+        <v>5.329332997433023</v>
       </c>
       <c r="E17">
-        <v>2.122802880497314</v>
+        <v>3.220661042391041</v>
       </c>
       <c r="F17">
-        <v>0.6234309350301354</v>
+        <v>5.501665747746008</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.836870397132891</v>
+        <v>2.283073561955429</v>
       </c>
       <c r="C18">
-        <v>1.45500560227676</v>
+        <v>3.838661298870221</v>
       </c>
       <c r="D18">
-        <v>3.084536579119172</v>
+        <v>5.592591712075119</v>
       </c>
       <c r="E18">
-        <v>2.18862106652539</v>
+        <v>3.358651994026936</v>
       </c>
       <c r="F18">
-        <v>0.603170048234392</v>
+        <v>5.780199716981844</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.938546127511424</v>
+        <v>2.357629835883081</v>
       </c>
       <c r="C19">
-        <v>1.479814276419449</v>
+        <v>4.004542633697405</v>
       </c>
       <c r="D19">
-        <v>3.199727713405359</v>
+        <v>5.855226672922818</v>
       </c>
       <c r="E19">
-        <v>2.253875225421562</v>
+        <v>3.496560299735852</v>
       </c>
       <c r="F19">
-        <v>0.5833711099022478</v>
+        <v>6.058517827598287</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.039666723207838</v>
+        <v>2.432089735060058</v>
       </c>
       <c r="C20">
-        <v>1.504428988320787</v>
+        <v>4.170322498566311</v>
       </c>
       <c r="D20">
-        <v>3.314298172004352</v>
+        <v>6.117264378975252</v>
       </c>
       <c r="E20">
-        <v>2.318556350026357</v>
+        <v>3.634387539759972</v>
       </c>
       <c r="F20">
-        <v>0.5640474999086031</v>
+        <v>6.336631376245883</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.140249166263465</v>
+        <v>2.506453960994149</v>
       </c>
       <c r="C21">
-        <v>1.528852829181161</v>
+        <v>4.336003325831418</v>
       </c>
       <c r="D21">
-        <v>3.428268991255255</v>
+        <v>6.378729559804198</v>
       </c>
       <c r="E21">
-        <v>2.382655238423263</v>
+        <v>3.772135232802442</v>
       </c>
       <c r="F21">
-        <v>0.5452124247599242</v>
+        <v>6.614550687037607</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.240309430035922</v>
+        <v>2.580723173143169</v>
       </c>
       <c r="C22">
-        <v>1.553088779630919</v>
+        <v>4.501587420003819</v>
       </c>
       <c r="D22">
-        <v>3.541659719229648</v>
+        <v>6.639645326663586</v>
       </c>
       <c r="E22">
-        <v>2.446162473698759</v>
+        <v>3.909804838498815</v>
       </c>
       <c r="F22">
-        <v>0.5268787987068154</v>
+        <v>6.892285303403288</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.339862547961865</v>
+        <v>2.654897987871566</v>
       </c>
       <c r="C23">
-        <v>1.577139710035967</v>
+        <v>4.667076957907253</v>
       </c>
       <c r="D23">
-        <v>3.654488343188266</v>
+        <v>6.900033307962972</v>
       </c>
       <c r="E23">
-        <v>2.509068404520233</v>
+        <v>4.047397758119657</v>
       </c>
       <c r="F23">
-        <v>0.5090591019973968</v>
+        <v>7.169843927125467</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.438922656209331</v>
+        <v>2.728978977191009</v>
       </c>
       <c r="C24">
-        <v>1.601008381953452</v>
+        <v>4.832473995751472</v>
       </c>
       <c r="D24">
-        <v>3.766771695151047</v>
+        <v>7.159913769787099</v>
       </c>
       <c r="E24">
-        <v>2.571363130922206</v>
+        <v>4.18491533634678</v>
       </c>
       <c r="F24">
-        <v>0.4917652268798311</v>
+        <v>7.447234645804018</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.537503042616237</v>
+        <v>2.802966667214883</v>
       </c>
       <c r="C25">
-        <v>1.624697446362437</v>
+        <v>4.997780473804446</v>
       </c>
       <c r="D25">
-        <v>3.878525126151928</v>
+        <v>7.41930572328947</v>
       </c>
       <c r="E25">
-        <v>2.633036482965413</v>
+        <v>4.322358862625831</v>
       </c>
       <c r="F25">
-        <v>0.4750083209775017</v>
+        <v>7.724464848085152</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.635616207660664</v>
+        <v>2.87686153653063</v>
       </c>
       <c r="C26">
-        <v>1.648209443839539</v>
+        <v>5.16299821781484</v>
       </c>
       <c r="D26">
-        <v>3.98976273008669</v>
+        <v>7.678227020156372</v>
       </c>
       <c r="E26">
-        <v>2.694078014973127</v>
+        <v>4.45972957197539</v>
       </c>
       <c r="F26">
-        <v>0.4587985876855103</v>
+        <v>8.001541365888089</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.733273870548894</v>
+        <v>2.950664014465333</v>
       </c>
       <c r="C27">
-        <v>1.671546802853257</v>
+        <v>5.328128943763891</v>
       </c>
       <c r="D27">
-        <v>4.100497271064349</v>
+        <v>7.936694438088868</v>
       </c>
       <c r="E27">
-        <v>2.754476988006739</v>
+        <v>4.597028646009727</v>
       </c>
       <c r="F27">
-        <v>0.4431450957748778</v>
+        <v>8.278470499174226</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.830487019785753</v>
+        <v>3.024374478735103</v>
       </c>
       <c r="C28">
-        <v>1.694711833810225</v>
+        <v>5.493174260590804</v>
       </c>
       <c r="D28">
-        <v>4.210740302978798</v>
+        <v>8.194723758369125</v>
       </c>
       <c r="E28">
-        <v>2.814222363054247</v>
+        <v>4.734257213603296</v>
       </c>
       <c r="F28">
-        <v>0.4280555740302145</v>
+        <v>8.555258052303403</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.927265936134161</v>
+        <v>3.097993253069512</v>
       </c>
       <c r="C29">
-        <v>1.717706732042058</v>
+        <v>5.658135671371726</v>
       </c>
       <c r="D29">
-        <v>4.3205021390316</v>
+        <v>8.452329835214966</v>
       </c>
       <c r="E29">
-        <v>2.873302792369947</v>
+        <v>4.871416351457262</v>
       </c>
       <c r="F29">
-        <v>0.41353620317133</v>
+        <v>8.8319093934377</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.023620204954167</v>
+        <v>3.171520604549648</v>
       </c>
       <c r="C30">
-        <v>1.740533564601201</v>
+        <v>5.823014575037361</v>
       </c>
       <c r="D30">
-        <v>4.429791880819081</v>
+        <v>8.70952665783472</v>
       </c>
       <c r="E30">
-        <v>2.931706607685792</v>
+        <v>5.008507084094974</v>
       </c>
       <c r="F30">
-        <v>0.3995913853138723</v>
+        <v>9.108429471830931</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.119558742006374</v>
+        <v>3.244956740586402</v>
       </c>
       <c r="C31">
-        <v>1.763194273566986</v>
+        <v>5.987812267953144</v>
       </c>
       <c r="D31">
-        <v>4.53861735202492</v>
+        <v>8.966327405993583</v>
       </c>
       <c r="E31">
-        <v>2.989421817753267</v>
+        <v>5.145530383930335</v>
       </c>
       <c r="F31">
-        <v>0.3862235345781798</v>
+        <v>9.384822848515595</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.215089799547169</v>
+        <v>3.318301805249787</v>
       </c>
       <c r="C32">
-        <v>1.785690660411011</v>
+        <v>6.152529942740186</v>
       </c>
       <c r="D32">
-        <v>4.64698506418516</v>
+        <v>9.22274449977564</v>
       </c>
       <c r="E32">
-        <v>3.046436104373578</v>
+        <v>5.282487171224278</v>
       </c>
       <c r="F32">
-        <v>0.3734328655566607</v>
+        <v>9.661093729792851</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.310220963967938</v>
+        <v>3.391555875396405</v>
       </c>
       <c r="C33">
-        <v>1.808024384996239</v>
+        <v>6.317168688884388</v>
       </c>
       <c r="D33">
-        <v>4.754900175790712</v>
+        <v>9.478789644034883</v>
       </c>
       <c r="E33">
-        <v>3.102736815459585</v>
+        <v>5.419378313255153</v>
       </c>
       <c r="F33">
-        <v>0.3612171868075054</v>
+        <v>9.937245961774719</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.404959166777151</v>
+        <v>3.464718956593781</v>
       </c>
       <c r="C34">
-        <v>1.830196948624855</v>
+        <v>6.481729492099993</v>
       </c>
       <c r="D34">
-        <v>4.862366415286369</v>
+        <v>9.734473867898565</v>
       </c>
       <c r="E34">
-        <v>3.158310971133977</v>
+        <v>5.556204623592419</v>
       </c>
       <c r="F34">
-        <v>0.3495717231884709</v>
+        <v>10.21328307533038</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.499310665237597</v>
+        <v>3.537790977814966</v>
       </c>
       <c r="C35">
-        <v>1.852209684361007</v>
+        <v>6.646213231653916</v>
       </c>
       <c r="D35">
-        <v>4.96938601494016</v>
+        <v>9.989807559620743</v>
       </c>
       <c r="E35">
-        <v>3.213145258019787</v>
+        <v>5.692966861119126</v>
       </c>
       <c r="F35">
-        <v>0.3384889594152635</v>
+        <v>10.48920827549425</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.593281025866675</v>
+        <v>3.61077178590659</v>
       </c>
       <c r="C36">
-        <v>1.874063743246854</v>
+        <v>6.810620678596951</v>
       </c>
       <c r="D36">
-        <v>5.075959604918054</v>
+        <v>10.24480049704172</v>
       </c>
       <c r="E36">
-        <v>3.267226034910242</v>
+        <v>5.829665728382929</v>
       </c>
       <c r="F36">
-        <v>0.3279584895217053</v>
+        <v>10.76502446642894</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.686875115626357</v>
+        <v>3.683661139388869</v>
       </c>
       <c r="C37">
-        <v>1.895760065039426</v>
+        <v>6.974952493086783</v>
       </c>
       <c r="D37">
-        <v>5.182086114647802</v>
+        <v>10.49946187385522</v>
       </c>
       <c r="E37">
-        <v>3.320539337294509</v>
+        <v>5.966301869526073</v>
       </c>
       <c r="F37">
-        <v>0.317966932240093</v>
+        <v>11.04073425843697</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.780097053595691</v>
+        <v>3.756458701707155</v>
       </c>
       <c r="C38">
-        <v>1.917299376711881</v>
+        <v>7.139209218894224</v>
       </c>
       <c r="D38">
-        <v>5.287762605627639</v>
+        <v>10.75380032178263</v>
       </c>
       <c r="E38">
-        <v>3.373070878146449</v>
+        <v>6.102875867916723</v>
       </c>
       <c r="F38">
-        <v>0.3084978643866539</v>
+        <v>11.31633996423022</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.872950169093691</v>
+        <v>3.829164032619565</v>
       </c>
       <c r="C39">
-        <v>1.938682136674912</v>
+        <v>7.303391279020999</v>
       </c>
       <c r="D39">
-        <v>5.392984108855699</v>
+        <v>11.00782392878451</v>
       </c>
       <c r="E39">
-        <v>3.424806060535544</v>
+        <v>6.239388243508575</v>
       </c>
       <c r="F39">
-        <v>0.2995317898620992</v>
+        <v>11.59184361467558</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.965436968854358</v>
+        <v>3.901776579259064</v>
       </c>
       <c r="C40">
-        <v>1.959908535930604</v>
+        <v>7.467498969804545</v>
       </c>
       <c r="D40">
-        <v>5.4977434377668</v>
+        <v>11.26154025323548</v>
       </c>
       <c r="E40">
-        <v>3.475729983996845</v>
+        <v>6.375839448646533</v>
       </c>
       <c r="F40">
-        <v>0.2910461260426707</v>
+        <v>11.86724694201913</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.057559038289773</v>
+        <v>3.974295666546547</v>
       </c>
       <c r="C41">
-        <v>1.980978425426857</v>
+        <v>7.631532451096617</v>
       </c>
       <c r="D41">
-        <v>5.602030956182134</v>
+        <v>11.51495633370273</v>
       </c>
       <c r="E41">
-        <v>3.525827452772232</v>
+        <v>6.512229863800962</v>
       </c>
       <c r="F41">
-        <v>0.2830152853114204</v>
+        <v>12.14255138330648</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.149316968597594</v>
+        <v>4.046720484880703</v>
       </c>
       <c r="C42">
-        <v>2.001891303177739</v>
+        <v>7.795491738533996</v>
       </c>
       <c r="D42">
-        <v>5.705834298563951</v>
+        <v>11.76807869454278</v>
       </c>
       <c r="E42">
-        <v>3.575082993827701</v>
+        <v>6.648559792973018</v>
       </c>
       <c r="F42">
-        <v>0.275410738828423</v>
+        <v>12.41775807218492</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.240710270482442</v>
+        <v>4.119050076810037</v>
       </c>
       <c r="C43">
-        <v>2.022646233801791</v>
+        <v>7.959376692801531</v>
       </c>
       <c r="D43">
-        <v>5.809138052176126</v>
+        <v>12.02091334672484</v>
       </c>
       <c r="E43">
-        <v>3.62348086485927</v>
+        <v>6.784829456668121</v>
       </c>
       <c r="F43">
-        <v>0.2682011125292825</v>
+        <v>12.69286781483395</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.331737202944132</v>
+        <v>4.191283321825753</v>
       </c>
       <c r="C44">
-        <v>2.043241795484037</v>
+        <v>8.123187003811394</v>
       </c>
       <c r="D44">
-        <v>5.911923424098615</v>
+        <v>12.27346578350226</v>
       </c>
       <c r="E44">
-        <v>3.671005073810703</v>
+        <v>6.921038984496635</v>
       </c>
       <c r="F44">
-        <v>0.2613523430081475</v>
+        <v>12.96788109022955</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.422394649140668</v>
+        <v>4.263418920471211</v>
       </c>
       <c r="C45">
-        <v>2.063676016110049</v>
+        <v>8.286922176749716</v>
       </c>
       <c r="D45">
-        <v>6.014167766832894</v>
+        <v>12.52574097032963</v>
       </c>
       <c r="E45">
-        <v>3.717639397393573</v>
+        <v>7.057188406775116</v>
       </c>
       <c r="F45">
-        <v>0.2548278472125444</v>
+        <v>13.24279800821687</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.512677921647306</v>
+        <v>4.335455372425944</v>
       </c>
       <c r="C46">
-        <v>2.083946258571858</v>
+        <v>8.450581513838022</v>
       </c>
       <c r="D46">
-        <v>6.115844074583725</v>
+        <v>12.77774332823442</v>
       </c>
       <c r="E46">
-        <v>3.763367395147691</v>
+        <v>7.193277643819755</v>
       </c>
       <c r="F46">
-        <v>0.2485887099895771</v>
+        <v>13.51761829063969</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.602580473348347</v>
+        <v>4.407390954038231</v>
       </c>
       <c r="C47">
-        <v>2.104049115410263</v>
+        <v>8.614164088034222</v>
       </c>
       <c r="D47">
-        <v>6.216920398137878</v>
+        <v>13.02947670961693</v>
       </c>
       <c r="E47">
-        <v>3.808172437641864</v>
+        <v>7.329306492399869</v>
       </c>
       <c r="F47">
-        <v>0.2425938864320453</v>
+        <v>13.7923412376252</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.692093679941701</v>
+        <v>4.479223693437437</v>
       </c>
       <c r="C48">
-        <v>2.123980269938498</v>
+        <v>8.777668719612278</v>
       </c>
       <c r="D48">
-        <v>6.317359174879789</v>
+        <v>13.28094436515418</v>
       </c>
       <c r="E48">
-        <v>3.85203772603696</v>
+        <v>7.465274610188408</v>
       </c>
       <c r="F48">
-        <v>0.2368004734216825</v>
+        <v>14.06696565992432</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.781206431667538</v>
+        <v>4.550951338792799</v>
       </c>
       <c r="C49">
-        <v>2.143734359650512</v>
+        <v>8.941093944740786</v>
       </c>
       <c r="D49">
-        <v>6.417116336191026</v>
+        <v>13.53214890010374</v>
       </c>
       <c r="E49">
-        <v>3.89494631590249</v>
+        <v>7.601181500131198</v>
       </c>
       <c r="F49">
-        <v>0.2311639865641446</v>
+        <v>14.34148985861355</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.869904626607317</v>
+        <v>4.622571322387107</v>
       </c>
       <c r="C50">
-        <v>2.163304787186712</v>
+        <v>9.104437971113883</v>
       </c>
       <c r="D50">
-        <v>6.516140335336633</v>
+        <v>13.78309221781576</v>
       </c>
       <c r="E50">
-        <v>3.936881149962181</v>
+        <v>7.737026484545572</v>
       </c>
       <c r="F50">
-        <v>0.2256386938579389</v>
+        <v>14.61591151412623</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.958170852746601</v>
+        <v>4.694080718115436</v>
       </c>
       <c r="C51">
-        <v>2.182683507712241</v>
+        <v>9.267698637887905</v>
       </c>
       <c r="D51">
-        <v>6.614371093034481</v>
+        <v>14.03377544762977</v>
       </c>
       <c r="E51">
-        <v>3.977825080696917</v>
+        <v>7.872808678399839</v>
       </c>
       <c r="F51">
-        <v>0.2201779602180149</v>
+        <v>14.89022762534382</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6.045983449550279</v>
+        <v>4.765476198460745</v>
       </c>
       <c r="C52">
-        <v>2.20186082496465</v>
+        <v>9.430873360291939</v>
       </c>
       <c r="D52">
-        <v>6.711738669018143</v>
+        <v>14.28419885339966</v>
       </c>
       <c r="E52">
-        <v>4.017761047106874</v>
+        <v>8.008526960058289</v>
       </c>
       <c r="F52">
-        <v>0.2147347996629134</v>
+        <v>15.1644344096386</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.271280133009109</v>
+        <v>4.836753970248833</v>
       </c>
       <c r="C53">
-        <v>2.580653674914635</v>
+        <v>9.593959051818539</v>
       </c>
       <c r="D53">
-        <v>8.08207695228821</v>
+        <v>14.53436171799797</v>
       </c>
       <c r="E53">
-        <v>4.541469753732968</v>
+        <v>8.144179927373157</v>
       </c>
       <c r="F53">
-        <v>0.7010743608163293</v>
+        <v>15.438527119389</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8.49100270528972</v>
+        <v>4.90790970819228</v>
       </c>
       <c r="C54">
-        <v>2.956261895477506</v>
+        <v>9.756952053575064</v>
       </c>
       <c r="D54">
-        <v>9.441518161914553</v>
+        <v>14.78426219852146</v>
       </c>
       <c r="E54">
-        <v>5.054509470156737</v>
+        <v>8.279765846276167</v>
       </c>
       <c r="F54">
-        <v>1.170085932263512</v>
+        <v>15.71249999614031</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>9.705137506219403</v>
+        <v>4.978938478782788</v>
       </c>
       <c r="C55">
-        <v>3.328718048560912</v>
+        <v>9.919848032476017</v>
       </c>
       <c r="D55">
-        <v>10.78933979955142</v>
+        <v>15.03389714155509</v>
       </c>
       <c r="E55">
-        <v>5.556779620064587</v>
+        <v>8.415282591618263</v>
       </c>
       <c r="F55">
-        <v>1.627716040054286</v>
+        <v>15.98634593175385</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10.91346224964752</v>
+        <v>5.04983464323228</v>
       </c>
       <c r="C56">
-        <v>3.697983667983766</v>
+        <v>10.08264183815685</v>
       </c>
       <c r="D56">
-        <v>12.12450636822427</v>
+        <v>15.28326185100315</v>
       </c>
       <c r="E56">
-        <v>6.04816403500323</v>
+        <v>8.550727573242369</v>
       </c>
       <c r="F56">
-        <v>2.074857139332041</v>
+        <v>16.2600562769941</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>12.11556069052894</v>
+        <v>5.120591737601462</v>
       </c>
       <c r="C57">
-        <v>4.063952444490684</v>
+        <v>10.24532739476785</v>
       </c>
       <c r="D57">
-        <v>13.4456805180916</v>
+        <v>15.53234979171766</v>
       </c>
       <c r="E57">
-        <v>6.528533039015428</v>
+        <v>8.686097629720997</v>
       </c>
       <c r="F57">
-        <v>2.511349584482293</v>
+        <v>16.53362051407415</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>13.31081604895461</v>
+        <v>5.191202331116183</v>
       </c>
       <c r="C58">
-        <v>4.426449983283387</v>
+        <v>10.40789744473734</v>
       </c>
       <c r="D58">
-        <v>14.75120968618441</v>
+        <v>15.78115221109987</v>
       </c>
       <c r="E58">
-        <v>6.997745643329755</v>
+        <v>8.821388918565395</v>
       </c>
       <c r="F58">
-        <v>2.936640299890271</v>
+        <v>16.80702588071744</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>14.49838828972721</v>
+        <v>5.261657878033798</v>
       </c>
       <c r="C59">
-        <v>4.785231478402777</v>
+        <v>10.57034333104439</v>
       </c>
       <c r="D59">
-        <v>16.03909842860721</v>
+        <v>16.02965765285823</v>
       </c>
       <c r="E59">
-        <v>7.455650901175043</v>
+        <v>8.956596734791836</v>
       </c>
       <c r="F59">
-        <v>3.349975753254574</v>
+        <v>17.08025685443424</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>15.67717543174527</v>
+        <v>5.331948487909442</v>
       </c>
       <c r="C60">
-        <v>5.139977620444449</v>
+        <v>10.73265469475039</v>
       </c>
       <c r="D60">
-        <v>17.30696746815201</v>
+        <v>16.27785132803419</v>
       </c>
       <c r="E60">
-        <v>7.902089380567999</v>
+        <v>9.091715313821419</v>
       </c>
       <c r="F60">
-        <v>3.750479378649911</v>
+        <v>17.35329449151561</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>16.84575971916641</v>
+        <v>5.402062673111261</v>
       </c>
       <c r="C61">
-        <v>5.490289552286669</v>
+        <v>10.89481907915907</v>
       </c>
       <c r="D61">
-        <v>18.5520069083835</v>
+        <v>16.52571429565045</v>
       </c>
       <c r="E61">
-        <v>8.336894716984013</v>
+        <v>9.226737570916919</v>
       </c>
       <c r="F61">
-        <v>4.137190546469447</v>
+        <v>17.62611558996702</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>18.00233591641625</v>
+        <v>5.471987083409898</v>
       </c>
       <c r="C62">
-        <v>5.835683136509372</v>
+        <v>11.05682141415238</v>
       </c>
       <c r="D62">
-        <v>19.77092563922622</v>
+        <v>16.77322238756895</v>
       </c>
       <c r="E62">
-        <v>8.759894946168608</v>
+        <v>9.361654747358315</v>
       </c>
       <c r="F62">
-        <v>4.509089607261379</v>
+        <v>17.89869159847699</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>19.14462076913842</v>
+        <v>5.541706033401843</v>
       </c>
       <c r="C63">
-        <v>6.175583338166161</v>
+        <v>11.21864334606209</v>
       </c>
       <c r="D63">
-        <v>20.95990322608749</v>
+        <v>17.02034478714681</v>
       </c>
       <c r="E63">
-        <v>9.170913819864529</v>
+        <v>9.496455935215929</v>
       </c>
       <c r="F63">
-        <v>4.865118780620879</v>
+        <v>18.17098719180401</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>20.26974354291736</v>
+        <v>5.611201046756121</v>
       </c>
       <c r="C64">
-        <v>6.509319497453312</v>
+        <v>11.38026236004286</v>
       </c>
       <c r="D64">
-        <v>22.11455468612148</v>
+        <v>17.26704213607649</v>
       </c>
       <c r="E64">
-        <v>9.569772237641724</v>
+        <v>9.631127442329769</v>
       </c>
       <c r="F64">
-        <v>5.20420333932448</v>
+        <v>18.44295846844857</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>21.37412067286563</v>
+        <v>5.680450249806036</v>
       </c>
       <c r="C65">
-        <v>6.836122616739099</v>
+        <v>11.54165061604802</v>
       </c>
       <c r="D65">
-        <v>23.22992143600232</v>
+        <v>17.51326399433784</v>
       </c>
       <c r="E65">
-        <v>9.956289765060252</v>
+        <v>9.765651932334032</v>
       </c>
       <c r="F65">
-        <v>5.525274704030624</v>
+        <v>18.71455040517034</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>22.45332390042972</v>
+        <v>5.749427580178888</v>
       </c>
       <c r="C66">
-        <v>7.155125628665207</v>
+        <v>11.70277337802494</v>
       </c>
       <c r="D66">
-        <v>24.30050713839045</v>
+        <v>17.75894540605431</v>
       </c>
       <c r="E66">
-        <v>10.33028620746036</v>
+        <v>9.900007242264483</v>
       </c>
       <c r="F66">
-        <v>5.827296899912432</v>
+        <v>18.98569368122669</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>23.50196161827786</v>
+        <v>5.8181017621048</v>
       </c>
       <c r="C67">
-        <v>7.465369044326264</v>
+        <v>11.86358693456861</v>
       </c>
       <c r="D67">
-        <v>25.32038101171744</v>
+        <v>18.00400245882507</v>
       </c>
       <c r="E67">
-        <v>10.6915833649462</v>
+        <v>10.03416473910089</v>
       </c>
       <c r="F67">
-        <v>6.109296430775393</v>
+        <v>19.25630023849256</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>24.51360729367828</v>
+        <v>5.886434989608079</v>
       </c>
       <c r="C68">
-        <v>7.765811695632632</v>
+        <v>12.02403568315157</v>
       </c>
       <c r="D68">
-        <v>26.28337045173855</v>
+        <v>18.24832541772391</v>
       </c>
       <c r="E68">
-        <v>11.04000684523983</v>
+        <v>10.16808711214615</v>
       </c>
       <c r="F68">
-        <v>6.370395154001544</v>
+        <v>19.52625695327415</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>25.48082522276921</v>
+        <v>5.954381221491935</v>
       </c>
       <c r="C69">
-        <v>8.055349016506197</v>
+        <v>12.18404837855806</v>
       </c>
       <c r="D69">
-        <v>27.18335801018868</v>
+        <v>18.49177031222692</v>
       </c>
       <c r="E69">
-        <v>11.37538788987249</v>
+        <v>10.30172490815893</v>
       </c>
       <c r="F69">
-        <v>6.609844960754119</v>
+        <v>19.79541798521817</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>26.39536314938061</v>
+        <v>6.021883950961173</v>
       </c>
       <c r="C70">
-        <v>8.332840030245348</v>
+        <v>12.3435322125982</v>
       </c>
       <c r="D70">
-        <v>28.01467970854394</v>
+        <v>18.73414714206669</v>
       </c>
       <c r="E70">
-        <v>11.6975657833136</v>
+        <v>10.43501204462751</v>
       </c>
       <c r="F70">
-        <v>6.827062391544573</v>
+        <v>20.06359395735202</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>27.24856198323432</v>
+        <v>6.088873273331691</v>
       </c>
       <c r="C71">
-        <v>8.597142246820805</v>
+        <v>12.50236529634026</v>
       </c>
       <c r="D71">
-        <v>28.77259358499219</v>
+        <v>18.97520355459297</v>
       </c>
       <c r="E71">
-        <v>12.0063898811503</v>
+        <v>10.56785938121054</v>
       </c>
       <c r="F71">
-        <v>7.021660776379233</v>
+        <v>20.33053739368435</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>28.03201861207761</v>
+        <v>6.155262152252688</v>
       </c>
       <c r="C72">
-        <v>8.847154226866019</v>
+        <v>12.66038641943486</v>
       </c>
       <c r="D72">
-        <v>29.45375495352636</v>
+        <v>19.21460302565393</v>
       </c>
       <c r="E72">
-        <v>12.30172183681273</v>
+        <v>10.70014523005015</v>
       </c>
       <c r="F72">
-        <v>7.193477136276927</v>
+        <v>20.59592255342946</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>28.73845117512172</v>
+        <v>6.220941096873982</v>
       </c>
       <c r="C73">
-        <v>9.081863445678467</v>
+        <v>12.81738003514904</v>
       </c>
       <c r="D73">
-        <v>30.05661143371867</v>
+        <v>19.4518959361683</v>
       </c>
       <c r="E73">
-        <v>12.58343825280371</v>
+        <v>10.83170254675273</v>
       </c>
       <c r="F73">
-        <v>7.342591110669425</v>
+        <v>20.85932012882241</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>29.36262546913147</v>
+        <v>6.285771716631896</v>
       </c>
       <c r="C74">
-        <v>9.300396016567879</v>
+        <v>12.97305630034635</v>
       </c>
       <c r="D74">
-        <v>30.58163102627378</v>
+        <v>19.68648231670689</v>
       </c>
       <c r="E74">
-        <v>12.85143319337724</v>
+        <v>10.9623012730142</v>
       </c>
       <c r="F74">
-        <v>7.469333594196515</v>
+        <v>21.12016413885669</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>29.90212305255886</v>
+        <v>6.349578513375175</v>
       </c>
       <c r="C75">
-        <v>9.502063679843383</v>
+        <v>13.12702501109683</v>
       </c>
       <c r="D75">
-        <v>31.03129852627724</v>
+        <v>19.91756633182315</v>
       </c>
       <c r="E75">
-        <v>13.10562059759997</v>
+        <v>11.09162498274216</v>
       </c>
       <c r="F75">
-        <v>7.574283594885582</v>
+        <v>21.37771057367906</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>30.35773127831673</v>
+        <v>6.412138566231963</v>
       </c>
       <c r="C76">
-        <v>9.686403407148442</v>
+        <v>13.27876208950346</v>
       </c>
       <c r="D76">
-        <v>31.40989096963424</v>
+        <v>20.14410366825491</v>
       </c>
       <c r="E76">
-        <v>13.34593798730494</v>
+        <v>11.2192419627447</v>
       </c>
       <c r="F76">
-        <v>7.658252981145252</v>
+        <v>21.63098946675017</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>30.73333432990107</v>
+        <v>6.47316970695968</v>
       </c>
       <c r="C77">
-        <v>9.853204531033928</v>
+        <v>13.42757085295837</v>
       </c>
       <c r="D77">
-        <v>31.72306860738421</v>
+        <v>20.36474771716366</v>
       </c>
       <c r="E77">
-        <v>13.57234897953889</v>
+        <v>11.34457227020425</v>
       </c>
       <c r="F77">
-        <v>7.722260042258361</v>
+        <v>21.87875427421114</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31.03534373239903</v>
+        <v>6.532318575954657</v>
       </c>
       <c r="C78">
-        <v>10.00252097117426</v>
+        <v>13.57254275459887</v>
       </c>
       <c r="D78">
-        <v>31.97737581800984</v>
+        <v>20.57780763908213</v>
       </c>
       <c r="E78">
-        <v>13.78484616255734</v>
+        <v>11.46685560499649</v>
       </c>
       <c r="F78">
-        <v>7.767493964892354</v>
+        <v>22.11943767752068</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31.27184345265088</v>
+        <v>6.589151676581271</v>
       </c>
       <c r="C79">
-        <v>10.13466609030264</v>
+        <v>13.7125284387936</v>
       </c>
       <c r="D79">
-        <v>32.17974112824172</v>
+        <v>20.78123656966041</v>
       </c>
       <c r="E79">
-        <v>13.98345454897185</v>
+        <v>11.58512914223672</v>
       </c>
       <c r="F79">
-        <v>7.795273189079181</v>
+        <v>22.35112992877097</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31.45167663248613</v>
+        <v>6.643154407722715</v>
       </c>
       <c r="C80">
-        <v>10.25019231846786</v>
+        <v>13.84613654670564</v>
       </c>
       <c r="D80">
-        <v>32.33704820005901</v>
+        <v>20.97267587745034</v>
       </c>
       <c r="E80">
-        <v>14.16823491311315</v>
+        <v>11.69822928071366</v>
       </c>
       <c r="F80">
-        <v>7.807001030706691</v>
+        <v>22.5716029177723</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31.58365911902508</v>
+        <v>6.693745764167835</v>
       </c>
       <c r="C81">
-        <v>10.34985714926896</v>
+        <v>13.97178319926673</v>
       </c>
       <c r="D81">
-        <v>32.45581499453935</v>
+        <v>21.14958250341657</v>
       </c>
       <c r="E81">
-        <v>14.3392870765466</v>
+        <v>11.80483404271493</v>
       </c>
       <c r="F81">
-        <v>7.804121888479522</v>
+        <v>22.77840782530487</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31.67601682892347</v>
+        <v>6.740315572938164</v>
       </c>
       <c r="C82">
-        <v>10.43458079023917</v>
+        <v>14.08781115375616</v>
       </c>
       <c r="D82">
-        <v>32.54198859772955</v>
+        <v>21.30945110189599</v>
       </c>
       <c r="E82">
-        <v>14.49675327557905</v>
+        <v>11.90355956582242</v>
       </c>
       <c r="F82">
-        <v>7.788080884568293</v>
+        <v>22.9690578306849</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31.73606015304651</v>
+        <v>6.782286412546341</v>
       </c>
       <c r="C83">
-        <v>10.50539942037355</v>
+        <v>14.1926770210902</v>
       </c>
       <c r="D83">
-        <v>32.60084126918158</v>
+        <v>21.45011219146197</v>
       </c>
       <c r="E83">
-        <v>14.64082136656046</v>
+        <v>11.99311057545159</v>
       </c>
       <c r="F83">
-        <v>7.760289038976054</v>
+        <v>23.14129644703014</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>31.77005382935589</v>
+        <v>6.819192088616381</v>
       </c>
       <c r="C84">
-        <v>10.56341900587898</v>
+        <v>14.2851794665806</v>
       </c>
       <c r="D84">
-        <v>32.63694428740869</v>
+        <v>21.57004677627361</v>
       </c>
       <c r="E84">
-        <v>14.77172796501151</v>
+        <v>12.0724613596142</v>
       </c>
       <c r="F84">
-        <v>7.72209521402111</v>
+        <v>23.29340293966296</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>31.78322296169647</v>
+        <v>6.850753122753786</v>
       </c>
       <c r="C85">
-        <v>10.60977102068791</v>
+        <v>14.36466367406061</v>
       </c>
       <c r="D85">
-        <v>32.6541940048305</v>
+        <v>21.66863028571604</v>
       </c>
       <c r="E85">
-        <v>14.88976115078375</v>
+        <v>12.14102079846421</v>
       </c>
       <c r="F85">
-        <v>7.674764820097171</v>
+        <v>23.42445884166135</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>31.72177386468701</v>
+        <v>6.876925075236023</v>
       </c>
       <c r="C86">
-        <v>10.57292354815851</v>
+        <v>14.4311335966086</v>
       </c>
       <c r="D86">
-        <v>32.58619086638191</v>
+        <v>21.74622149753691</v>
       </c>
       <c r="E86">
-        <v>14.87241781634645</v>
+        <v>12.19872736742646</v>
       </c>
       <c r="F86">
-        <v>7.57728495097748</v>
+        <v>23.53449199260527</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31.65905272514319</v>
+        <v>6.897903126344926</v>
       </c>
       <c r="C87">
-        <v>10.53519279568058</v>
+        <v>14.48523219185916</v>
       </c>
       <c r="D87">
-        <v>32.51695449446415</v>
+        <v>21.80407842291349</v>
       </c>
       <c r="E87">
-        <v>14.85388511845127</v>
+        <v>12.24604171790843</v>
       </c>
       <c r="F87">
-        <v>7.479219139940099</v>
+        <v>23.62445140565177</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>31.59533577474472</v>
+        <v>6.914083127336029</v>
       </c>
       <c r="C88">
-        <v>10.49668175940031</v>
+        <v>14.52810267902371</v>
       </c>
       <c r="D88">
-        <v>32.44671355175524</v>
+        <v>21.84412808517451</v>
       </c>
       <c r="E88">
-        <v>14.83421229743947</v>
+        <v>12.28384674165634</v>
       </c>
       <c r="F88">
-        <v>7.380663631652823</v>
+        <v>23.69602693912352</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31.53084068557909</v>
+        <v>6.92599494150913</v>
       </c>
       <c r="C89">
-        <v>10.45748641129057</v>
+        <v>14.56118686094965</v>
       </c>
       <c r="D89">
-        <v>32.37565462840917</v>
+        <v>21.86867445428651</v>
       </c>
       <c r="E89">
-        <v>14.8134503567793</v>
+        <v>12.31329090331546</v>
       </c>
       <c r="F89">
-        <v>7.281704023821603</v>
+        <v>23.75137891928411</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>31.46573934731933</v>
+        <v>6.934229721907483</v>
       </c>
       <c r="C90">
-        <v>10.41769471826115</v>
+        <v>14.58602456516784</v>
       </c>
       <c r="D90">
-        <v>32.30393054603944</v>
+        <v>21.88012222853845</v>
       </c>
       <c r="E90">
-        <v>14.79165565478166</v>
+        <v>12.33562710081092</v>
       </c>
       <c r="F90">
-        <v>7.182415754978074</v>
+        <v>23.79285816621027</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31.40016689448769</v>
+        <v>6.939378324821081</v>
       </c>
       <c r="C91">
-        <v>10.37738638797239</v>
+        <v>14.60409819188654</v>
       </c>
       <c r="D91">
-        <v>32.23166668866016</v>
+        <v>21.88076754311016</v>
       </c>
       <c r="E91">
-        <v>14.76888950999577</v>
+        <v>12.35208244064042</v>
       </c>
       <c r="F91">
-        <v>7.082864911453365</v>
+        <v>23.8227764394681</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31.33422959523524</v>
+        <v>6.941988960725592</v>
       </c>
       <c r="C92">
-        <v>10.33663299969474</v>
+        <v>14.61673720593156</v>
       </c>
       <c r="D92">
-        <v>32.15896582193376</v>
+        <v>21.8726699334277</v>
       </c>
       <c r="E92">
-        <v>14.74521754823634</v>
+        <v>12.36377381506951</v>
       </c>
       <c r="F92">
-        <v>6.983108946173732</v>
+        <v>23.84325320993156</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>31.26801117093612</v>
+        <v>6.94254420779078</v>
       </c>
       <c r="C93">
-        <v>10.29549827737239</v>
+        <v>14.62507562772111</v>
       </c>
       <c r="D93">
-        <v>32.08591217409347</v>
+        <v>21.85759528609319</v>
       </c>
       <c r="E93">
-        <v>14.72070884355787</v>
+        <v>12.37166641142535</v>
       </c>
       <c r="F93">
-        <v>6.883197508162917</v>
+        <v>23.85613643966425</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>31.20157736634295</v>
+        <v>6.941453162358103</v>
       </c>
       <c r="C94">
-        <v>10.25403859960631</v>
+        <v>14.63004700135767</v>
       </c>
       <c r="D94">
-        <v>32.01257474950715</v>
+        <v>21.83700916623568</v>
       </c>
       <c r="E94">
-        <v>14.69543485719983</v>
+        <v>12.3765639603265</v>
       </c>
       <c r="F94">
-        <v>6.783173355284641</v>
+        <v>23.86297976420725</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31.13498000939122</v>
+        <v>6.939053414504451</v>
       </c>
       <c r="C95">
-        <v>10.21230360946456</v>
+        <v>14.63240077406607</v>
       </c>
       <c r="D95">
-        <v>31.9390101672926</v>
+        <v>21.81209968802982</v>
       </c>
       <c r="E95">
-        <v>14.66946815516362</v>
+        <v>12.37911828381116</v>
       </c>
       <c r="F95">
-        <v>6.683073148436825</v>
+        <v>23.86505549330336</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31.06826007073405</v>
+        <v>6.935618309423553</v>
       </c>
       <c r="C96">
-        <v>10.17033683990778</v>
+        <v>14.63272822247913</v>
       </c>
       <c r="D96">
-        <v>31.86526526536665</v>
+        <v>21.78381419138418</v>
       </c>
       <c r="E96">
-        <v>14.64288102718386</v>
+        <v>12.37984828104714</v>
       </c>
       <c r="F96">
-        <v>6.582928205139171</v>
+        <v>23.86338622718135</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31.00145005605794</v>
+        <v>6.931366293315191</v>
       </c>
       <c r="C97">
-        <v>10.12817634046638</v>
+        <v>14.63149034190845</v>
       </c>
       <c r="D97">
-        <v>31.79137847888759</v>
+        <v>21.75289931409721</v>
       </c>
       <c r="E97">
-        <v>14.61574412261277</v>
+        <v>12.37916170890954</v>
       </c>
       <c r="F97">
-        <v>6.482765225766306</v>
+        <v>23.8587831713306</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>30.93457580228259</v>
+        <v>6.926470428122082</v>
       </c>
       <c r="C98">
-        <v>10.08585529927261</v>
+        <v>14.62904391823477</v>
       </c>
       <c r="D98">
-        <v>31.7173815060819</v>
+        <v>21.71993914506012</v>
       </c>
       <c r="E98">
-        <v>14.58812518158408</v>
+        <v>12.37737640388966</v>
       </c>
       <c r="F98">
-        <v>6.382606943578619</v>
+        <v>23.85188423944084</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>30.86765785963735</v>
+        <v>6.921067078455071</v>
       </c>
       <c r="C99">
-        <v>10.04340262407302</v>
+        <v>14.62566384438595</v>
       </c>
       <c r="D99">
-        <v>31.64330064989096</v>
+        <v>21.6853884963718</v>
       </c>
       <c r="E99">
-        <v>14.56008794005663</v>
+        <v>12.37473876834912</v>
       </c>
       <c r="F99">
-        <v>6.28247273536264</v>
+        <v>23.84318835747807</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>30.80071262364747</v>
+        <v>6.915263372108627</v>
       </c>
       <c r="C100">
-        <v>10.00084347334752</v>
+        <v>14.62156138501511</v>
       </c>
       <c r="D100">
-        <v>31.56915779716821</v>
+        <v>21.6496004291947</v>
       </c>
       <c r="E100">
-        <v>14.53169129178449</v>
+        <v>12.37143924008894</v>
       </c>
       <c r="F100">
-        <v>6.182379049261518</v>
+        <v>23.83308448127349</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>30.73375324479574</v>
+        <v>6.909143368525365</v>
       </c>
       <c r="C101">
-        <v>9.958199732607747</v>
+        <v>14.61689885193541</v>
       </c>
       <c r="D101">
-        <v>31.49497115491911</v>
+        <v>21.61284880945368</v>
       </c>
       <c r="E101">
-        <v>14.50298875289002</v>
+        <v>12.36762484127341</v>
       </c>
       <c r="F101">
-        <v>6.082339875617112</v>
+        <v>23.82187538183549</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>30.66679031753212</v>
+        <v>6.902773035553982</v>
       </c>
       <c r="C102">
-        <v>9.915490438341298</v>
+        <v>14.61180098827049</v>
       </c>
       <c r="D102">
-        <v>31.42075591405954</v>
+        <v>21.57534609436119</v>
       </c>
       <c r="E102">
-        <v>14.47402821773872</v>
+        <v>12.36340908216702</v>
       </c>
       <c r="F102">
-        <v>5.982367154871054</v>
+        <v>23.80979664284637</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>30.59983239732838</v>
+        <v>6.896204201317704</v>
       </c>
       <c r="C103">
-        <v>9.872732155573166</v>
+        <v>14.60636382529365</v>
       </c>
       <c r="D103">
-        <v>31.34652480555436</v>
+        <v>21.53725724042244</v>
       </c>
       <c r="E103">
-        <v>14.444851971304</v>
+        <v>12.3588796859826</v>
       </c>
       <c r="F103">
-        <v>5.882471092078617</v>
+        <v>23.79703189281703</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>30.53288640859845</v>
+        <v>6.889477652472152</v>
       </c>
       <c r="C104">
-        <v>9.829939305963402</v>
+        <v>14.60066143320559</v>
       </c>
       <c r="D104">
-        <v>31.27228853215779</v>
+        <v>21.49871056659492</v>
       </c>
       <c r="E104">
-        <v>14.41549691567311</v>
+        <v>12.35410456534118</v>
       </c>
       <c r="F104">
-        <v>5.782660430345974</v>
+        <v>23.78372440579732</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>30.46595797667853</v>
+        <v>6.882625558056194</v>
       </c>
       <c r="C105">
-        <v>9.787124461619863</v>
+        <v>14.59475108694193</v>
       </c>
       <c r="D105">
-        <v>31.19805610764097</v>
+        <v>21.45980607694479</v>
       </c>
       <c r="E105">
-        <v>14.38599493634983</v>
+        <v>12.34913640330385</v>
       </c>
       <c r="F105">
-        <v>5.682942691842982</v>
+        <v>23.76998620197325</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>30.39905169201161</v>
+        <v>6.875673401626718</v>
       </c>
       <c r="C106">
-        <v>9.744298595571152</v>
+        <v>14.58867720809944</v>
       </c>
       <c r="D106">
-        <v>31.12383514405923</v>
+        <v>21.42062190833828</v>
       </c>
       <c r="E106">
-        <v>14.35637336564477</v>
+        <v>12.34401617277252</v>
       </c>
       <c r="F106">
-        <v>5.583324391514217</v>
+        <v>23.75590515051844</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>30.33217131436629</v>
+        <v>6.868641404962848</v>
       </c>
       <c r="C107">
-        <v>9.701471298232546</v>
+        <v>14.58247434184962</v>
       </c>
       <c r="D107">
-        <v>31.0496320932235</v>
+        <v>21.38121927922431</v>
       </c>
       <c r="E107">
-        <v>14.32665548169449</v>
+        <v>12.33877582924197</v>
       </c>
       <c r="F107">
-        <v>5.483811214501806</v>
+        <v>23.74155032629153</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>30.26531993189661</v>
+        <v>6.861545638320505</v>
       </c>
       <c r="C108">
-        <v>9.658650964708752</v>
+        <v>14.57616944439238</v>
       </c>
       <c r="D108">
-        <v>30.97545244018922</v>
+        <v>21.34164627875775</v>
       </c>
       <c r="E108">
-        <v>14.29686101214348</v>
+        <v>12.33344035253829</v>
       </c>
       <c r="F108">
-        <v>5.384408158295359</v>
+        <v>23.72697620683975</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>30.1985000889663</v>
+        <v>6.854398934492118</v>
       </c>
       <c r="C109">
-        <v>9.615844956697623</v>
+        <v>14.56978360438694</v>
       </c>
       <c r="D109">
-        <v>30.90130085933627</v>
+        <v>21.30194079882401</v>
       </c>
       <c r="E109">
-        <v>14.26700661503007</v>
+        <v>12.3280293322948</v>
       </c>
       <c r="F109">
-        <v>5.285119654483431</v>
+        <v>23.71222590229237</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>30.13171388988492</v>
+        <v>6.847211587559874</v>
       </c>
       <c r="C110">
-        <v>9.573059741631429</v>
+        <v>14.56333337594895</v>
       </c>
       <c r="D110">
-        <v>30.82718134167255</v>
+        <v>21.26213275512051</v>
       </c>
       <c r="E110">
-        <v>14.23710632172915</v>
+        <v>12.322558210206</v>
       </c>
       <c r="F110">
-        <v>5.185949673086211</v>
+        <v>23.69733361791799</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>30.06496308186015</v>
+        <v>6.839991872146323</v>
       </c>
       <c r="C111">
-        <v>9.530301014902335</v>
+        <v>14.55683183264801</v>
       </c>
       <c r="D111">
-        <v>30.75309730912749</v>
+        <v>21.22224588974587</v>
       </c>
       <c r="E111">
-        <v>14.2071719297589</v>
+        <v>12.31703918333321</v>
       </c>
       <c r="F111">
-        <v>5.08690181439477</v>
+        <v>23.68232660094047</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>29.99824912067268</v>
+        <v>6.832746457811389</v>
       </c>
       <c r="C112">
-        <v>9.487573800965741</v>
+        <v>14.55028931963597</v>
       </c>
       <c r="D112">
-        <v>30.67905170637703</v>
+        <v>21.18229912936582</v>
       </c>
       <c r="E112">
-        <v>14.17721335364774</v>
+        <v>12.3114818929665</v>
       </c>
       <c r="F112">
-        <v>4.987979389694519</v>
+        <v>23.66722661750585</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>29.93157322323095</v>
+        <v>6.825480745061515</v>
       </c>
       <c r="C113">
-        <v>9.444882542389678</v>
+        <v>14.54371402063398</v>
       </c>
       <c r="D113">
-        <v>30.60504707259829</v>
+        <v>21.14230756152269</v>
       </c>
       <c r="E113">
-        <v>14.14723893037278</v>
+        <v>12.30589397639019</v>
       </c>
       <c r="F113">
-        <v>4.889185487887356</v>
+        <v>23.65205110478647</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>29.86493641020902</v>
+        <v>6.818199120375128</v>
       </c>
       <c r="C114">
-        <v>9.402231176646751</v>
+        <v>14.53711243209396</v>
       </c>
       <c r="D114">
-        <v>30.53108560355702</v>
+        <v>21.10228322119836</v>
       </c>
       <c r="E114">
-        <v>14.1172556712384</v>
+        <v>12.30028152373627</v>
       </c>
       <c r="F114">
-        <v>4.790523030525381</v>
+        <v>23.63681407303321</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>29.79833953766473</v>
+        <v>6.810905156338911</v>
       </c>
       <c r="C115">
-        <v>9.359623202014539</v>
+        <v>14.53048974004316</v>
       </c>
       <c r="D115">
-        <v>30.4571692031649</v>
+        <v>21.06223575774714</v>
       </c>
       <c r="E115">
-        <v>14.08726947344949</v>
+        <v>12.29464940840347</v>
       </c>
       <c r="F115">
-        <v>4.691994819742875</v>
+        <v>23.62152683620003</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>29.73178333260012</v>
+        <v>6.803601767897336</v>
       </c>
       <c r="C116">
-        <v>9.317061734345323</v>
+        <v>14.5238501051454</v>
       </c>
       <c r="D116">
-        <v>30.38329951757336</v>
+        <v>21.02217295411629</v>
       </c>
       <c r="E116">
-        <v>14.0572853034368</v>
+        <v>12.28900153312464</v>
       </c>
       <c r="F116">
-        <v>4.593603580968801</v>
+        <v>23.60619857792016</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>29.66526841214553</v>
+        <v>6.796291344394178</v>
       </c>
       <c r="C117">
-        <v>9.274549556046395</v>
+        <v>14.51719686879167</v>
       </c>
       <c r="D117">
-        <v>30.30947798226987</v>
+        <v>20.98210110512396</v>
       </c>
       <c r="E117">
-        <v>14.02730735300706</v>
+        <v>12.28334102982131</v>
       </c>
       <c r="F117">
-        <v>4.495352000907971</v>
+        <v>23.59083675803989</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>29.59879529840124</v>
+        <v>6.788975863334077</v>
       </c>
       <c r="C118">
-        <v>9.232089158243326</v>
+        <v>14.51053271727543</v>
       </c>
       <c r="D118">
-        <v>30.2357058513009</v>
+        <v>20.94202530622169</v>
       </c>
       <c r="E118">
-        <v>13.9973391677216</v>
+        <v>12.27767041180959</v>
       </c>
       <c r="F118">
-        <v>4.397242762266348</v>
+        <v>23.57544743632286</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>29.53236445027067</v>
+        <v>6.781656955798823</v>
       </c>
       <c r="C119">
-        <v>9.189682777312452</v>
+        <v>14.50385981452292</v>
       </c>
       <c r="D119">
-        <v>30.16198422457918</v>
+        <v>20.90194969216198</v>
       </c>
       <c r="E119">
-        <v>13.96738375161953</v>
+        <v>12.27199171851983</v>
       </c>
       <c r="F119">
-        <v>4.299278574455561</v>
+        <v>23.56003554111544</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>29.46597624975766</v>
+        <v>6.774335968057026</v>
       </c>
       <c r="C120">
-        <v>9.147332426801043</v>
+        <v>14.49717991338172</v>
       </c>
       <c r="D120">
-        <v>30.08831406843591</v>
+        <v>20.86187761899496</v>
       </c>
       <c r="E120">
-        <v>13.93744365438065</v>
+        <v>12.26630660736913</v>
       </c>
       <c r="F120">
-        <v>4.201462201581839</v>
+        <v>23.54460511150119</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>29.39963102829426</v>
+        <v>6.767014014730266</v>
       </c>
       <c r="C121">
-        <v>9.10503992421461</v>
+        <v>14.49049442324892</v>
       </c>
       <c r="D121">
-        <v>30.01469623175467</v>
+        <v>20.82181184511434</v>
       </c>
       <c r="E121">
-        <v>13.90752104490754</v>
+        <v>12.26061641991992</v>
       </c>
       <c r="F121">
-        <v>4.103796489345235</v>
+        <v>23.52915947676497</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>29.33332907284452</v>
+        <v>6.75969202087468</v>
       </c>
       <c r="C122">
-        <v>9.06280691513879</v>
+        <v>14.48380453537227</v>
       </c>
       <c r="D122">
-        <v>29.94113146321341</v>
+        <v>20.78175461721573</v>
       </c>
       <c r="E122">
-        <v>13.87761777292097</v>
+        <v>12.25492227317435</v>
       </c>
       <c r="F122">
-        <v>4.00628439103806</v>
+        <v>23.5137013835389</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>29.26707063111792</v>
+        <v>6.752370759260439</v>
       </c>
       <c r="C123">
-        <v>9.020634893874554</v>
+        <v>14.47711119780221</v>
       </c>
       <c r="D123">
-        <v>29.86762042455713</v>
+        <v>20.74170782143057</v>
       </c>
       <c r="E123">
-        <v>13.84773541982016</v>
+        <v>12.24922505824813</v>
       </c>
       <c r="F123">
-        <v>3.908928993170066</v>
+        <v>23.49823309864868</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>29.20085591969893</v>
+        <v>6.745050878811433</v>
       </c>
       <c r="C124">
-        <v>8.978525221393586</v>
+        <v>14.47041518810102</v>
       </c>
       <c r="D124">
-        <v>29.79416370074097</v>
+        <v>20.70167302116968</v>
       </c>
       <c r="E124">
-        <v>13.81787534068006</v>
+        <v>12.24352550018187</v>
       </c>
       <c r="F124">
-        <v>3.811733541262083</v>
+        <v>23.4827564946973</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>29.13468513101088</v>
+        <v>6.737732924569937</v>
       </c>
       <c r="C125">
-        <v>8.936479140989519</v>
+        <v>14.46371715891449</v>
       </c>
       <c r="D125">
-        <v>29.72076181415085</v>
+        <v>20.66165147961775</v>
       </c>
       <c r="E125">
-        <v>13.78803869931828</v>
+        <v>12.23782419359481</v>
       </c>
       <c r="F125">
-        <v>3.714701466217558</v>
+        <v>23.46727312156017</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>29.06855843337977</v>
+        <v>6.730417354731119</v>
       </c>
       <c r="C126">
-        <v>8.894497791941445</v>
+        <v>14.45701762189291</v>
       </c>
       <c r="D126">
-        <v>29.6474152256008</v>
+        <v>20.6216442709031</v>
       </c>
       <c r="E126">
-        <v>13.75822649777381</v>
+        <v>12.2321216291323</v>
       </c>
       <c r="F126">
-        <v>3.617836411792386</v>
+        <v>23.45178427318728</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>29.00247597615817</v>
+        <v>6.723104555268615</v>
       </c>
       <c r="C127">
-        <v>8.852582221417194</v>
+        <v>14.45031700448918</v>
       </c>
       <c r="D127">
-        <v>29.57412435577165</v>
+        <v>20.58165226535012</v>
       </c>
       <c r="E127">
-        <v>13.72843960101531</v>
+        <v>12.22641821364831</v>
       </c>
       <c r="F127">
-        <v>3.521142264684708</v>
+        <v>23.43629104569509</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>28.93643789297399</v>
+        <v>6.715794849899116</v>
       </c>
       <c r="C128">
-        <v>8.810733395071432</v>
+        <v>14.44361566121354</v>
       </c>
       <c r="D128">
-        <v>29.50088957158502</v>
+        <v>20.54167619544036</v>
       </c>
       <c r="E128">
-        <v>13.6986787575659</v>
+        <v>12.22071428326599</v>
       </c>
       <c r="F128">
-        <v>3.424623185562585</v>
+        <v>23.42079433143877</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>28.87044430216253</v>
+        <v>6.708488516735297</v>
       </c>
       <c r="C129">
-        <v>8.768952205302471</v>
+        <v>14.43691388781805</v>
       </c>
       <c r="D129">
-        <v>29.42771121389366</v>
+        <v>20.50171667997192</v>
       </c>
       <c r="E129">
-        <v>13.66894461675852</v>
+        <v>12.21501011885456</v>
       </c>
       <c r="F129">
-        <v>3.328283644116339</v>
+        <v>23.40529492696917</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>28.80449531048599</v>
+        <v>6.7011857856249</v>
       </c>
       <c r="C130">
-        <v>8.727239481209141</v>
+        <v>14.43021192879638</v>
       </c>
       <c r="D130">
-        <v>29.35458957754281</v>
+        <v>20.46177424896858</v>
       </c>
       <c r="E130">
-        <v>13.63923774309617</v>
+        <v>12.2093059521654</v>
       </c>
       <c r="F130">
-        <v>3.232128451144004</v>
+        <v>23.38979345799658</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>28.73859101436151</v>
+        <v>6.693886864300999</v>
       </c>
       <c r="C131">
-        <v>8.685595992124346</v>
+        <v>14.42350999410582</v>
       </c>
       <c r="D131">
-        <v>29.28152493733189</v>
+        <v>20.42184934825221</v>
       </c>
       <c r="E131">
-        <v>13.60955862798063</v>
+        <v>12.20360197400385</v>
       </c>
       <c r="F131">
-        <v>3.136162816835571</v>
+        <v>23.37429047362854</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>28.67273150081237</v>
+        <v>6.686591918346375</v>
       </c>
       <c r="C132">
-        <v>8.644022461617897</v>
+        <v>14.41680825315928</v>
       </c>
       <c r="D132">
-        <v>29.20851753361192</v>
+        <v>20.38194236577573</v>
       </c>
       <c r="E132">
-        <v>13.57990770133722</v>
+        <v>12.19789834369962</v>
       </c>
       <c r="F132">
-        <v>3.040392367997463</v>
+        <v>23.35878642376979</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>28.60691685215067</v>
+        <v>6.679301101796346</v>
       </c>
       <c r="C133">
-        <v>8.60251956249077</v>
+        <v>14.41010684823795</v>
       </c>
       <c r="D133">
-        <v>29.13556758832433</v>
+        <v>20.34205362918676</v>
       </c>
       <c r="E133">
-        <v>13.55028534140595</v>
+        <v>12.19219519470287</v>
       </c>
       <c r="F133">
-        <v>2.944823244962558</v>
+        <v>23.34328169024719</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>28.54114713876288</v>
+        <v>6.672014535973961</v>
       </c>
       <c r="C134">
-        <v>8.561087931593361</v>
+        <v>14.40340589831346</v>
       </c>
       <c r="D134">
-        <v>29.06267529991759</v>
+        <v>20.3021834196035</v>
       </c>
       <c r="E134">
-        <v>13.52069187857759</v>
+        <v>12.18649263932358</v>
       </c>
       <c r="F134">
-        <v>2.84946211457778</v>
+        <v>23.32777660053566</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>28.47542243307699</v>
+        <v>6.664732331528054</v>
       </c>
       <c r="C135">
-        <v>8.519728165553653</v>
+        <v>14.39670550286114</v>
       </c>
       <c r="D135">
-        <v>28.9898408514091</v>
+        <v>20.26233198161584</v>
       </c>
       <c r="E135">
-        <v>13.49112760680973</v>
+        <v>12.18079077164561</v>
       </c>
       <c r="F135">
-        <v>2.75431628814657</v>
+        <v>23.31227143220226</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>28.40974279831244</v>
+        <v>6.657454578889141</v>
       </c>
       <c r="C136">
-        <v>8.478440829572838</v>
+        <v>14.39000574565128</v>
       </c>
       <c r="D136">
-        <v>28.91706440771374</v>
+        <v>20.22249952860277</v>
       </c>
       <c r="E136">
-        <v>13.46159278339453</v>
+        <v>12.17508967077827</v>
       </c>
       <c r="F136">
-        <v>2.659393760832572</v>
+        <v>23.29676642414463</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>28.34410829315793</v>
+        <v>6.650181357677743</v>
       </c>
       <c r="C137">
-        <v>8.437226459367414</v>
+        <v>14.38330669850936</v>
       </c>
       <c r="D137">
-        <v>28.84434612282706</v>
+        <v>20.18268624833481</v>
       </c>
       <c r="E137">
-        <v>13.43208763574802</v>
+        <v>12.16938940316006</v>
       </c>
       <c r="F137">
-        <v>2.564703329728592</v>
+        <v>23.28126178309108</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>28.2785189773311</v>
+        <v>6.642912736516493</v>
       </c>
       <c r="C138">
-        <v>8.396085563689867</v>
+        <v>14.37660842177152</v>
       </c>
       <c r="D138">
-        <v>28.77168613487152</v>
+        <v>20.14289230850971</v>
       </c>
       <c r="E138">
-        <v>13.40261236619395</v>
+        <v>12.16369002427079</v>
       </c>
       <c r="F138">
-        <v>2.470254705354828</v>
+        <v>23.26575768171911</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>28.212974900477</v>
+        <v>6.635648774165668</v>
       </c>
       <c r="C139">
-        <v>8.355018628832566</v>
+        <v>14.36991096624522</v>
       </c>
       <c r="D139">
-        <v>28.69908457405976</v>
+        <v>20.1031178587296</v>
       </c>
       <c r="E139">
-        <v>13.3731671543783</v>
+        <v>12.15799158164826</v>
       </c>
       <c r="F139">
-        <v>2.376058593524331</v>
+        <v>23.25025427226063</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>28.14747611541639</v>
+        <v>6.62838952371577</v>
       </c>
       <c r="C140">
-        <v>8.314026119175795</v>
+        <v>14.36321437542669</v>
       </c>
       <c r="D140">
-        <v>28.62654155743826</v>
+        <v>20.06336303244498</v>
       </c>
       <c r="E140">
-        <v>13.34375216057444</v>
+        <v>12.15229411465434</v>
       </c>
       <c r="F140">
-        <v>2.282126939387521</v>
+        <v>23.23475168169455</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>28.08202266904616</v>
+        <v>6.621135029322166</v>
       </c>
       <c r="C141">
-        <v>8.273108480864154</v>
+        <v>14.35651868568072</v>
       </c>
       <c r="D141">
-        <v>28.55405719522079</v>
+        <v>20.02362795115381</v>
       </c>
       <c r="E141">
-        <v>13.31436752889891</v>
+        <v>12.14659765938295</v>
       </c>
       <c r="F141">
-        <v>2.188472959991882</v>
+        <v>23.2192500205773</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>28.01661460718522</v>
+        <v>6.613885331757039</v>
       </c>
       <c r="C142">
-        <v>8.232266142710046</v>
+        <v>14.34982392807637</v>
       </c>
       <c r="D142">
-        <v>28.48163158783784</v>
+        <v>19.98391272481311</v>
       </c>
       <c r="E142">
-        <v>13.28501338839741</v>
+        <v>12.14090224312121</v>
       </c>
       <c r="F142">
-        <v>2.095111528508343</v>
+        <v>23.20374938454226</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>27.95125197397367</v>
+        <v>6.606640464569924</v>
       </c>
       <c r="C143">
-        <v>8.191499517678746</v>
+        <v>14.34313012921788</v>
       </c>
       <c r="D143">
-        <v>28.40926482948639</v>
+        <v>19.94421745454189</v>
       </c>
       <c r="E143">
-        <v>13.255689854959</v>
+        <v>12.13520789348825</v>
       </c>
       <c r="F143">
-        <v>2.002059203522533</v>
+        <v>23.18824985594539</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>27.88593481179442</v>
+        <v>6.599400458394512</v>
       </c>
       <c r="C144">
-        <v>8.150809005628831</v>
+        <v>14.33643731196408</v>
       </c>
       <c r="D144">
-        <v>28.33695700723926</v>
+        <v>19.90454223410287</v>
       </c>
       <c r="E144">
-        <v>13.22639703352128</v>
+        <v>12.12951462962519</v>
       </c>
       <c r="F144">
-        <v>1.90933476062969</v>
+        <v>23.17275150749906</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>27.82066316217561</v>
+        <v>6.592165339035168</v>
       </c>
       <c r="C145">
-        <v>8.110194992972975</v>
+        <v>14.32974549581089</v>
       </c>
       <c r="D145">
-        <v>28.26470820293176</v>
+        <v>19.86488715109399</v>
       </c>
       <c r="E145">
-        <v>13.19713501861751</v>
+        <v>12.12382247136492</v>
       </c>
       <c r="F145">
-        <v>1.816959449869046</v>
+        <v>23.15725440178948</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>27.75543706504529</v>
+        <v>6.584935129530733</v>
       </c>
       <c r="C146">
-        <v>8.069657855410869</v>
+        <v>14.32305469768282</v>
       </c>
       <c r="D146">
-        <v>28.19251849273448</v>
+        <v>19.82525228752493</v>
       </c>
       <c r="E146">
-        <v>13.16790389605284</v>
+        <v>12.11813143295618</v>
       </c>
       <c r="F146">
-        <v>1.72495746197377</v>
+        <v>23.1417585933626</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>27.69025656028772</v>
+        <v>6.577709849971302</v>
       </c>
       <c r="C147">
-        <v>8.029197958090652</v>
+        <v>14.31636493197448</v>
       </c>
       <c r="D147">
-        <v>28.12038794872262</v>
+        <v>19.78563772118314</v>
       </c>
       <c r="E147">
-        <v>13.13870374379065</v>
+        <v>12.11244152802978</v>
       </c>
       <c r="F147">
-        <v>1.633356434158273</v>
+        <v>23.1262641302443</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>27.62512168641191</v>
+        <v>6.570489518050311</v>
       </c>
       <c r="C148">
-        <v>7.988815657135731</v>
+        <v>14.30967621093726</v>
       </c>
       <c r="D148">
-        <v>28.04831663817467</v>
+        <v>19.7460435257032</v>
       </c>
       <c r="E148">
-        <v>13.10953463291585</v>
+        <v>12.10675276752401</v>
       </c>
       <c r="F148">
-        <v>1.542188150374714</v>
+        <v>23.11077105372652</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>27.56003248126954</v>
+        <v>6.56327414960407</v>
       </c>
       <c r="C149">
-        <v>7.948511300496111</v>
+        <v>14.30298854556891</v>
       </c>
       <c r="D149">
-        <v>27.97630462511793</v>
+        <v>19.70646977118114</v>
       </c>
       <c r="E149">
-        <v>13.08039662937236</v>
+        <v>12.10106516131446</v>
       </c>
       <c r="F149">
-        <v>1.451489390171284</v>
+        <v>23.09527940035289</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>27.49498898266542</v>
+        <v>6.556063758312572</v>
       </c>
       <c r="C150">
-        <v>7.908285228373799</v>
+        <v>14.29630194467432</v>
       </c>
       <c r="D150">
-        <v>27.90435196963297</v>
+        <v>19.66691652574664</v>
       </c>
       <c r="E150">
-        <v>13.05128979173931</v>
+        <v>12.09537871759829</v>
       </c>
       <c r="F150">
-        <v>1.361302981638269</v>
+        <v>23.07978920210957</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>27.42999122697449</v>
+        <v>6.548858356716678</v>
       </c>
       <c r="C151">
-        <v>7.868137774644567</v>
+        <v>14.28961641693546</v>
       </c>
       <c r="D151">
-        <v>27.83245872906631</v>
+        <v>19.62738385384741</v>
       </c>
       <c r="E151">
-        <v>13.02221417757756</v>
+        <v>12.08969344415545</v>
       </c>
       <c r="F151">
-        <v>1.271679274656277</v>
+        <v>23.06430048710921</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>27.36503925091107</v>
+        <v>6.541657955500058</v>
       </c>
       <c r="C152">
-        <v>7.828069266717096</v>
+        <v>14.28293196914329</v>
       </c>
       <c r="D152">
-        <v>27.76062495768539</v>
+        <v>19.5878718198426</v>
       </c>
       <c r="E152">
-        <v>12.99316983614379</v>
+        <v>12.08400934701424</v>
       </c>
       <c r="F152">
-        <v>1.182677819535347</v>
+        <v>23.04881328052955</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>27.30013309036576</v>
+        <v>6.534462564424691</v>
       </c>
       <c r="C153">
-        <v>7.7880800267982</v>
+        <v>14.27624860762139</v>
       </c>
       <c r="D153">
-        <v>27.68885070727091</v>
+        <v>19.54838048517995</v>
       </c>
       <c r="E153">
-        <v>12.96415681628874</v>
+        <v>12.078326432304</v>
       </c>
       <c r="F153">
-        <v>1.094369627013117</v>
+        <v>23.03332760434963</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>27.23527278104766</v>
+        <v>6.527272191927821</v>
       </c>
       <c r="C154">
-        <v>7.748170372022623</v>
+        <v>14.26956633805823</v>
       </c>
       <c r="D154">
-        <v>27.61713602722316</v>
+        <v>19.50890991025344</v>
       </c>
       <c r="E154">
-        <v>12.93517516252884</v>
+        <v>12.07264470458871</v>
       </c>
       <c r="F154">
-        <v>1.006840220849404</v>
+        <v>23.01784347832133</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>27.1704583584293</v>
+        <v>6.520086845623686</v>
       </c>
       <c r="C155">
-        <v>7.708340615115716</v>
+        <v>14.26288516488009</v>
       </c>
       <c r="D155">
-        <v>27.54548096543738</v>
+        <v>19.46946015488668</v>
       </c>
       <c r="E155">
-        <v>12.90622491501338</v>
+        <v>12.06696416840866</v>
       </c>
       <c r="F155">
-        <v>0.9201936186682974</v>
+        <v>23.0023609198593</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>27.10568985780291</v>
+        <v>6.512906532231213</v>
       </c>
       <c r="C156">
-        <v>7.668591064945432</v>
+        <v>14.25620509260762</v>
       </c>
       <c r="D156">
-        <v>27.47388556725039</v>
+        <v>19.43003127657841</v>
       </c>
       <c r="E156">
-        <v>12.87730611327154</v>
+        <v>12.0612848273981</v>
       </c>
       <c r="F156">
-        <v>0.8345579724322804</v>
+        <v>22.98687994447107</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>27.04096731435826</v>
+        <v>6.505731257778637</v>
       </c>
       <c r="C157">
-        <v>7.628922026679366</v>
+        <v>14.24952612465549</v>
       </c>
       <c r="D157">
-        <v>27.40234987643604</v>
+        <v>19.39062333330106</v>
       </c>
       <c r="E157">
-        <v>12.84841879254483</v>
+        <v>12.05560668483325</v>
       </c>
       <c r="F157">
-        <v>0.7500930052869295</v>
+        <v>22.97140056609394</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>26.97629076312128</v>
+        <v>6.498561027653865</v>
       </c>
       <c r="C158">
-        <v>7.589333802480465</v>
+        <v>14.24284826439059</v>
       </c>
       <c r="D158">
-        <v>27.33087393649368</v>
+        <v>19.35123638117913</v>
       </c>
       <c r="E158">
-        <v>12.81956298714983</v>
+        <v>12.04992974358101</v>
       </c>
       <c r="F158">
-        <v>0.6670004172932397</v>
+        <v>22.95592279714478</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>26.91166023921375</v>
+        <v>6.49139584666523</v>
       </c>
       <c r="C159">
-        <v>7.549826691547755</v>
+        <v>14.23617151460606</v>
       </c>
       <c r="D159">
-        <v>27.25945778813636</v>
+        <v>19.31187047641288</v>
       </c>
       <c r="E159">
-        <v>12.79073872892407</v>
+        <v>12.04425400618569</v>
       </c>
       <c r="F159">
-        <v>0.5855386249293318</v>
+        <v>22.94044664883925</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>26.84707577761805</v>
+        <v>6.484235719156994</v>
       </c>
       <c r="C160">
-        <v>7.510400990520249</v>
+        <v>14.22949587790377</v>
       </c>
       <c r="D160">
-        <v>27.18810147097663</v>
+        <v>19.27252567435872</v>
       </c>
       <c r="E160">
-        <v>12.76194604825103</v>
+        <v>12.03857947490039</v>
       </c>
       <c r="F160">
-        <v>0.506044180146314</v>
+        <v>22.92497213129734</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>26.78253741333346</v>
+        <v>6.477080648964249</v>
       </c>
       <c r="C161">
-        <v>7.471056993858444</v>
+        <v>14.22282135655038</v>
       </c>
       <c r="D161">
-        <v>27.11680502497239</v>
+        <v>19.23320203014941</v>
       </c>
       <c r="E161">
-        <v>12.73318497403879</v>
+        <v>12.03290615177949</v>
       </c>
       <c r="F161">
-        <v>0.4289620384994696</v>
+        <v>22.9094992535041</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>26.71804518147065</v>
+        <v>6.469930639587638</v>
       </c>
       <c r="C162">
-        <v>7.431794994348173</v>
+        <v>14.21614795265579</v>
       </c>
       <c r="D162">
-        <v>27.04556848760334</v>
+        <v>19.19389959853204</v>
       </c>
       <c r="E162">
-        <v>12.70445553368665</v>
+        <v>12.02723403865614</v>
       </c>
       <c r="F162">
-        <v>0.3548891744963684</v>
+        <v>22.89402802390718</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>26.65359911702427</v>
+        <v>6.462785694115676</v>
       </c>
       <c r="C163">
-        <v>7.39261528223628</v>
+        <v>14.20947566812937</v>
       </c>
       <c r="D163">
-        <v>26.97439189554223</v>
+        <v>19.15461843404707</v>
       </c>
       <c r="E163">
-        <v>12.67575775387819</v>
+        <v>12.02156313716845</v>
       </c>
       <c r="F163">
-        <v>0.2846354097027349</v>
+        <v>22.87855844998575</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>26.58919925519253</v>
+        <v>6.455645815359538</v>
       </c>
       <c r="C164">
-        <v>7.353518147425421</v>
+        <v>14.20280450464768</v>
       </c>
       <c r="D164">
-        <v>26.90327528563162</v>
+        <v>19.11535859112858</v>
       </c>
       <c r="E164">
-        <v>12.64709165949625</v>
+        <v>12.01589344883566</v>
       </c>
       <c r="F164">
-        <v>0.2193006899682336</v>
+        <v>22.86309053855472</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>26.52484563116986</v>
+        <v>6.44851100582647</v>
       </c>
       <c r="C165">
-        <v>7.314503877924263</v>
+        <v>14.19613446385769</v>
       </c>
       <c r="D165">
-        <v>26.83221869312764</v>
+        <v>19.07612012385755</v>
       </c>
       <c r="E165">
-        <v>12.61845727518539</v>
+        <v>12.01022497496698</v>
       </c>
       <c r="F165">
-        <v>0.1603492191872818</v>
+        <v>22.8476242963432</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>26.46053828027985</v>
+        <v>6.441381267795125</v>
       </c>
       <c r="C166">
-        <v>7.275572760301873</v>
+        <v>14.18946554711661</v>
       </c>
       <c r="D166">
-        <v>26.76122215270552</v>
+        <v>19.03690308648974</v>
       </c>
       <c r="E166">
-        <v>12.5898546242228</v>
+        <v>12.00455771680461</v>
       </c>
       <c r="F166">
-        <v>0.1095998696997943</v>
+        <v>22.83215972870241</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>26.39627723795958</v>
+        <v>6.434256603310223</v>
       </c>
       <c r="C167">
-        <v>7.236725081256727</v>
+        <v>14.18279775579581</v>
       </c>
       <c r="D167">
-        <v>26.69028569887499</v>
+        <v>18.99770753288093</v>
       </c>
       <c r="E167">
-        <v>12.56128372916643</v>
+        <v>11.99889167543349</v>
       </c>
       <c r="F167">
-        <v>0.06893862765856784</v>
+        <v>22.81669684143195</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>26.33206253977669</v>
+        <v>6.427137014229203</v>
       </c>
       <c r="C168">
-        <v>7.197961125331905</v>
+        <v>14.17613109106475</v>
       </c>
       <c r="D168">
-        <v>26.61940936533381</v>
+        <v>18.95853351707756</v>
       </c>
       <c r="E168">
-        <v>12.53274461197095</v>
+        <v>11.9932268518697</v>
       </c>
       <c r="F168">
-        <v>0.03952169303731008</v>
+        <v>22.80123563944577</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>26.26789422145617</v>
+        <v>6.420022502226449</v>
       </c>
       <c r="C169">
-        <v>7.159281177444788</v>
+        <v>14.16946555405201</v>
       </c>
       <c r="D169">
-        <v>26.54859318540807</v>
+        <v>18.9193810929452</v>
       </c>
       <c r="E169">
-        <v>12.50423729370745</v>
+        <v>11.98756324703988</v>
       </c>
       <c r="F169">
-        <v>0.02075104473081125</v>
+        <v>22.78577612725494</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>26.20377231885909</v>
+        <v>6.412913068815991</v>
       </c>
       <c r="C170">
-        <v>7.120685521727694</v>
+        <v>14.16280114578835</v>
       </c>
       <c r="D170">
-        <v>26.47783719221982</v>
+        <v>18.8802503143929</v>
       </c>
       <c r="E170">
-        <v>12.47576179504538</v>
+        <v>11.98190086180701</v>
       </c>
       <c r="F170">
-        <v>0.01018175084540381</v>
+        <v>22.77031830932259</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>26.13969686805074</v>
+        <v>6.405808715372771</v>
       </c>
       <c r="C171">
-        <v>7.082174441541774</v>
+        <v>14.15613786724284</v>
       </c>
       <c r="D171">
-        <v>26.40714141836265</v>
+        <v>18.84114123534143</v>
       </c>
       <c r="E171">
-        <v>12.44731813598738</v>
+        <v>11.97623969696855</v>
       </c>
       <c r="F171">
-        <v>0.004786706990269039</v>
+        <v>22.75486218952796</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>26.07566790524737</v>
+        <v>6.398709443119365</v>
       </c>
       <c r="C172">
-        <v>7.0437482204481</v>
+        <v>14.14947571932634</v>
       </c>
       <c r="D172">
-        <v>26.33650589625344</v>
+        <v>18.80205390974285</v>
       </c>
       <c r="E172">
-        <v>12.418906336165</v>
+        <v>11.97057975328615</v>
       </c>
       <c r="F172">
-        <v>0.002198785791149883</v>
+        <v>22.73940777169626</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>26.01168546685778</v>
+        <v>6.391615253192061</v>
       </c>
       <c r="C173">
-        <v>7.005407141557249</v>
+        <v>14.14281470289907</v>
       </c>
       <c r="D173">
-        <v>26.26593065826874</v>
+        <v>18.76298839161506</v>
       </c>
       <c r="E173">
-        <v>12.39052641471837</v>
+        <v>11.96492103145227</v>
       </c>
       <c r="F173">
-        <v>0.0009985399627539015</v>
+        <v>22.72395505935544</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>25.94774958950121</v>
+        <v>6.384526146620918</v>
       </c>
       <c r="C174">
-        <v>6.967151488004073</v>
+        <v>14.13615481879004</v>
       </c>
       <c r="D174">
-        <v>26.19541573629553</v>
+        <v>18.72394473502823</v>
       </c>
       <c r="E174">
-        <v>12.36217839041836</v>
+        <v>11.95926353214494</v>
       </c>
       <c r="F174">
-        <v>0.0004510618280972392</v>
+        <v>22.70850405585523</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>25.88386030996726</v>
+        <v>6.377442124294034</v>
       </c>
       <c r="C175">
-        <v>6.928981543045809</v>
+        <v>14.12949606776433</v>
       </c>
       <c r="D175">
-        <v>26.12496116218569</v>
+        <v>18.68492299417238</v>
       </c>
       <c r="E175">
-        <v>12.33386228174275</v>
+        <v>11.95360725597966</v>
       </c>
       <c r="F175">
-        <v>0.0002032606222643548</v>
+        <v>22.69305476440725</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>25.82001766528358</v>
+        <v>6.370363187098321</v>
       </c>
       <c r="C176">
-        <v>6.890897589806023</v>
+        <v>14.12283845058462</v>
       </c>
       <c r="D176">
-        <v>26.05456696786567</v>
+        <v>18.64592322326921</v>
       </c>
       <c r="E176">
-        <v>12.30557810673048</v>
+        <v>11.94795220355852</v>
       </c>
       <c r="F176">
-        <v>9.151179612578446E-05</v>
+        <v>22.67760718800844</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>25.75622169267345</v>
+        <v>6.363289335797171</v>
       </c>
       <c r="C177">
-        <v>6.85289991189949</v>
+        <v>14.11618196794866</v>
       </c>
       <c r="D177">
-        <v>25.98423318488233</v>
+        <v>18.60694547670075</v>
       </c>
       <c r="E177">
-        <v>12.27732588328758</v>
+        <v>11.94229837544185</v>
       </c>
       <c r="F177">
-        <v>4.11882316561031E-05</v>
+        <v>22.66216132962713</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>25.69247242959131</v>
+        <v>6.356220571055458</v>
       </c>
       <c r="C178">
-        <v>6.814988793031444</v>
+        <v>14.10952662055148</v>
       </c>
       <c r="D178">
-        <v>25.91395984481739</v>
+        <v>18.56798980890789</v>
       </c>
       <c r="E178">
-        <v>12.24910562890599</v>
+        <v>11.93664577217149</v>
       </c>
       <c r="F178">
-        <v>1.854815169674033E-05</v>
+        <v>22.6467171920239</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>25.62876991371754</v>
+        <v>6.349156893558339</v>
       </c>
       <c r="C179">
-        <v>6.777164517167744</v>
+        <v>14.10287240904931</v>
       </c>
       <c r="D179">
-        <v>25.84374697934335</v>
+        <v>18.52905627446081</v>
       </c>
       <c r="E179">
-        <v>12.22091736095022</v>
+        <v>11.9309943942643</v>
       </c>
       <c r="F179">
-        <v>8.364869598701153E-06</v>
+        <v>22.63127477788077</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>25.56511418296508</v>
+        <v>6.342098303853163</v>
       </c>
       <c r="C180">
-        <v>6.739427368891118</v>
+        <v>14.09621933407968</v>
       </c>
       <c r="D180">
-        <v>25.77359461995757</v>
+        <v>18.4901449280477</v>
       </c>
       <c r="E180">
-        <v>12.19276109652757</v>
+        <v>11.92534424222076</v>
       </c>
       <c r="F180">
-        <v>3.778666144302969E-06</v>
+        <v>22.61583408982142</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>25.50150527549067</v>
+        <v>6.335044802461995</v>
       </c>
       <c r="C181">
-        <v>6.701777632879101</v>
+        <v>14.08956739626185</v>
       </c>
       <c r="D181">
-        <v>25.70350279822706</v>
+        <v>18.45125582446853</v>
       </c>
       <c r="E181">
-        <v>12.16463685253751</v>
+        <v>11.91969531652187</v>
       </c>
       <c r="F181">
-        <v>1.738116927658032E-06</v>
+        <v>22.60039513029166</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>25.43794322968789</v>
+        <v>6.327996389882273</v>
       </c>
       <c r="C182">
-        <v>6.664215594567365</v>
+        <v>14.08291659619748</v>
       </c>
       <c r="D182">
-        <v>25.63347154581359</v>
+        <v>18.41238901866224</v>
       </c>
       <c r="E182">
-        <v>12.13654464574137</v>
+        <v>11.91404761763843</v>
       </c>
       <c r="F182">
-        <v>7.766854924590829E-07</v>
+        <v>22.58495790173826</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>25.37442808420871</v>
+        <v>6.320953066516737</v>
       </c>
       <c r="C183">
-        <v>6.62674153983297</v>
+        <v>14.07626693447528</v>
       </c>
       <c r="D183">
-        <v>25.56350089436687</v>
+        <v>18.37354456569529</v>
       </c>
       <c r="E183">
-        <v>12.10848449271024</v>
+        <v>11.908401146024</v>
       </c>
       <c r="F183">
-        <v>3.654351532256251E-07</v>
+        <v>22.56952240649256</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>25.31095987795092</v>
+        <v>6.313914832766399</v>
       </c>
       <c r="C184">
-        <v>6.589355755028744</v>
+        <v>14.06961841166914</v>
       </c>
       <c r="D184">
-        <v>25.49359087565261</v>
+        <v>18.33472252077737</v>
       </c>
       <c r="E184">
-        <v>12.08045640991365</v>
+        <v>11.90275590212399</v>
       </c>
       <c r="F184">
-        <v>1.714813618658053E-07</v>
+        <v>22.55408864682956</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>25.24753865007144</v>
+        <v>6.306881688984324</v>
       </c>
       <c r="C185">
-        <v>6.552058527264514</v>
+        <v>14.06297102834637</v>
       </c>
       <c r="D185">
-        <v>25.42374152157056</v>
+        <v>18.29592293925304</v>
       </c>
       <c r="E185">
-        <v>12.05246041366322</v>
+        <v>11.89711188637126</v>
       </c>
       <c r="F185">
-        <v>7.479688951728916E-08</v>
+        <v>22.53865662497383</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>25.18416443999138</v>
+        <v>6.299853635481345</v>
       </c>
       <c r="C186">
-        <v>6.514850144195935</v>
+        <v>14.05632478505766</v>
       </c>
       <c r="D186">
-        <v>25.35395286407548</v>
+        <v>18.25714587662102</v>
       </c>
       <c r="E186">
-        <v>12.024496520187</v>
+        <v>11.89146909918989</v>
       </c>
       <c r="F186">
-        <v>5.172586366980723E-08</v>
+        <v>22.52322634309169</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>25.12083728738972</v>
+        <v>6.292830672550633</v>
       </c>
       <c r="C187">
-        <v>6.477730894208543</v>
+        <v>14.0496796823517</v>
       </c>
       <c r="D187">
-        <v>25.28422493530082</v>
+        <v>18.21839138851956</v>
       </c>
       <c r="E187">
-        <v>11.99656474560694</v>
+        <v>11.88582754099585</v>
       </c>
       <c r="F187">
-        <v>5.953466411004114E-08</v>
+        <v>22.50779780331625</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>25.05755723222074</v>
+        <v>6.285812800451351</v>
       </c>
       <c r="C188">
-        <v>6.44070106643565</v>
+        <v>14.04303572076383</v>
       </c>
       <c r="D188">
-        <v>25.2145577675654</v>
+        <v>18.17965953074051</v>
       </c>
       <c r="E188">
-        <v>11.96866510594154</v>
+        <v>11.88018721219716</v>
       </c>
       <c r="F188">
-        <v>3.769069646585469E-08</v>
+        <v>22.49237100772798</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>24.9943243147053</v>
+        <v>6.278800019414397</v>
       </c>
       <c r="C189">
-        <v>6.403760950658676</v>
+        <v>14.03639290082441</v>
       </c>
       <c r="D189">
-        <v>25.14495139327123</v>
+        <v>18.14095035922871</v>
       </c>
       <c r="E189">
-        <v>11.94079761715962</v>
+        <v>11.87454811319589</v>
       </c>
       <c r="F189">
-        <v>8.477087053699599E-09</v>
+        <v>22.47694595838303</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>24.93113857534279</v>
+        <v>6.271792329658945</v>
       </c>
       <c r="C190">
-        <v>6.366910837547682</v>
+        <v>14.02975122305712</v>
       </c>
       <c r="D190">
-        <v>25.07540584505123</v>
+        <v>18.10226393007753</v>
       </c>
       <c r="E190">
-        <v>11.91296229512516</v>
+        <v>11.86891024438813</v>
       </c>
       <c r="F190">
-        <v>1.150740052170048E-08</v>
+        <v>22.46152265730743</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>24.86800005491027</v>
+        <v>6.264789731368371</v>
       </c>
       <c r="C191">
-        <v>6.330151018502526</v>
+        <v>14.02311068797879</v>
       </c>
       <c r="D191">
-        <v>25.00592115575942</v>
+        <v>18.06360029954204</v>
       </c>
       <c r="E191">
-        <v>11.88515915567117</v>
+        <v>11.86327360616523</v>
       </c>
       <c r="F191">
-        <v>5.592395460032928E-09</v>
+        <v>22.44610110648067</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>24.80490879446617</v>
+        <v>6.25779222471215</v>
       </c>
       <c r="C192">
-        <v>6.293481785725054</v>
+        <v>14.0164712961023</v>
       </c>
       <c r="D192">
-        <v>24.93649735837925</v>
+        <v>18.02495952402961</v>
       </c>
       <c r="E192">
-        <v>11.85738821455706</v>
+        <v>11.85763819891377</v>
       </c>
       <c r="F192">
-        <v>-3.482980244730386E-09</v>
+        <v>22.43068130787977</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>24.74186483535567</v>
+        <v>6.25079980984764</v>
       </c>
       <c r="C193">
-        <v>6.256903432329928</v>
+        <v>14.00983304793533</v>
       </c>
       <c r="D193">
-        <v>24.86713448615284</v>
+        <v>17.98634166011017</v>
       </c>
       <c r="E193">
-        <v>11.82964948750242</v>
+        <v>11.85200402301688</v>
       </c>
       <c r="F193">
-        <v>1.041059503874072E-08</v>
+        <v>22.41526326343756</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>24.67886821920961</v>
+        <v>6.243812486897146</v>
       </c>
       <c r="C194">
-        <v>6.220416252172619</v>
+        <v>14.00319594398234</v>
       </c>
       <c r="D194">
-        <v>24.79783257256562</v>
+        <v>17.94774676451218</v>
       </c>
       <c r="E194">
-        <v>11.80194299018835</v>
+        <v>11.84637107885334</v>
       </c>
       <c r="F194">
-        <v>1.257327214401002E-08</v>
+        <v>22.39984697507534</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>24.61591898795265</v>
+        <v>6.236830255981661</v>
       </c>
       <c r="C195">
-        <v>6.184020540074406</v>
+        <v>13.99655998474345</v>
       </c>
       <c r="D195">
-        <v>24.7285916512941</v>
+        <v>17.90917489412783</v>
       </c>
       <c r="E195">
-        <v>11.77426873825406</v>
+        <v>11.84073936679928</v>
       </c>
       <c r="F195">
-        <v>-3.216180712085564E-10</v>
+        <v>22.38443244469472</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>24.55301718380124</v>
+        <v>6.22985311720236</v>
       </c>
       <c r="C196">
-        <v>6.147716591707201</v>
+        <v>13.9899251707169</v>
       </c>
       <c r="D196">
-        <v>24.65941175628896</v>
+        <v>17.87062610601165</v>
       </c>
       <c r="E196">
-        <v>11.74662674732113</v>
+        <v>11.83510888722661</v>
       </c>
       <c r="F196">
-        <v>8.189344514851426E-09</v>
+        <v>22.36901967417431</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>24.4901628492692</v>
+        <v>6.222881070640587</v>
       </c>
       <c r="C197">
-        <v>6.111504703601875</v>
+        <v>13.98329150239697</v>
       </c>
       <c r="D197">
-        <v>24.59029292176629</v>
+        <v>17.83210045738329</v>
       </c>
       <c r="E197">
-        <v>11.71901703297409</v>
+        <v>11.82947964050671</v>
       </c>
       <c r="F197">
-        <v>1.252295855178065E-08</v>
+        <v>22.35360866538324</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>24.42735602717038</v>
+        <v>6.215914116370417</v>
       </c>
       <c r="C198">
-        <v>6.075385173257446</v>
+        <v>13.97665898027632</v>
       </c>
       <c r="D198">
-        <v>24.52123518218204</v>
+        <v>17.79359800562845</v>
       </c>
       <c r="E198">
-        <v>11.6914396107913</v>
+        <v>11.82385162700822</v>
       </c>
       <c r="F198">
-        <v>-8.904372612246219E-10</v>
+        <v>22.33819942017295</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>24.36459676061915</v>
+        <v>6.208952254450801</v>
       </c>
       <c r="C199">
-        <v>6.039358299035174</v>
+        <v>13.97002760484513</v>
       </c>
       <c r="D199">
-        <v>24.45223857228632</v>
+        <v>17.75511880829803</v>
       </c>
       <c r="E199">
-        <v>11.66389449632738</v>
+        <v>11.8182248470945</v>
       </c>
       <c r="F199">
-        <v>5.539213581739397E-09</v>
+        <v>22.32279194038559</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>24.30188509303641</v>
+        <v>6.201995484928141</v>
       </c>
       <c r="C200">
-        <v>6.003424380247098</v>
+        <v>13.96339737659124</v>
       </c>
       <c r="D200">
-        <v>24.38330312711937</v>
+        <v>17.71666292311241</v>
       </c>
       <c r="E200">
-        <v>11.6363817051277</v>
+        <v>11.81259930113215</v>
       </c>
       <c r="F200">
-        <v>1.254628305017336E-08</v>
+        <v>22.30738622785203</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>24.23922106814898</v>
+        <v>6.195043807840096</v>
       </c>
       <c r="C201">
-        <v>5.967583717147231</v>
+        <v>13.95676829600124</v>
       </c>
       <c r="D201">
-        <v>24.31442888198956</v>
+        <v>17.67823040795812</v>
       </c>
       <c r="E201">
-        <v>11.60890125273315</v>
+        <v>11.80697498948535</v>
       </c>
       <c r="F201">
-        <v>-1.431732325467458E-10</v>
+        <v>22.29198228439153</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>24.17660472999472</v>
+        <v>6.188097223211542</v>
       </c>
       <c r="C202">
-        <v>5.93183661087855</v>
+        <v>13.95014036355961</v>
       </c>
       <c r="D202">
-        <v>24.24561587252526</v>
+        <v>17.63982132089275</v>
       </c>
       <c r="E202">
-        <v>11.58145315467267</v>
+        <v>11.8013519125111</v>
       </c>
       <c r="F202">
-        <v>2.728538880914837E-09</v>
+        <v>22.27658011181959</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>24.11403612292374</v>
+        <v>6.181155731058761</v>
       </c>
       <c r="C203">
-        <v>5.896183363579178</v>
+        <v>13.94351357974986</v>
       </c>
       <c r="D203">
-        <v>24.17686413466769</v>
+        <v>17.6014357201425</v>
       </c>
       <c r="E203">
-        <v>11.55403742648204</v>
+        <v>11.79573007057196</v>
       </c>
       <c r="F203">
-        <v>1.150840415114568E-08</v>
+        <v>22.26117971193788</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>24.05151529160114</v>
+        <v>6.174219331390324</v>
       </c>
       <c r="C204">
-        <v>5.860624278297228</v>
+        <v>13.93688794505394</v>
       </c>
       <c r="D204">
-        <v>24.10817370464706</v>
+        <v>17.5630736641051</v>
       </c>
       <c r="E204">
-        <v>11.52665408368983</v>
+        <v>11.79010946402797</v>
       </c>
       <c r="F204">
-        <v>7.73138010891355E-10</v>
+        <v>22.24578108654657</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>23.98904228101026</v>
+        <v>6.167288024201555</v>
       </c>
       <c r="C205">
-        <v>5.825159659021307</v>
+        <v>13.93026345995301</v>
       </c>
       <c r="D205">
-        <v>24.03954461903678</v>
+        <v>17.52473521134943</v>
       </c>
       <c r="E205">
-        <v>11.49930314183487</v>
+        <v>11.78449009323364</v>
       </c>
       <c r="F205">
-        <v>4.006063969430362E-10</v>
+        <v>22.23038423743814</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>23.92661713645393</v>
+        <v>6.16036180948376</v>
       </c>
       <c r="C206">
-        <v>5.789789810717539</v>
+        <v>13.92364012492672</v>
       </c>
       <c r="D206">
-        <v>23.97097691474188</v>
+        <v>17.48642042061661</v>
       </c>
       <c r="E206">
-        <v>11.4719846164587</v>
+        <v>11.77887195854683</v>
       </c>
       <c r="F206">
-        <v>1.043057390147132E-08</v>
+        <v>22.21498916639777</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>23.86423990355846</v>
+        <v>6.153440687219081</v>
       </c>
       <c r="C207">
-        <v>5.754515039243423</v>
+        <v>13.91701794045439</v>
       </c>
       <c r="D207">
-        <v>23.90247062898049</v>
+        <v>17.44812935082058</v>
       </c>
       <c r="E207">
-        <v>11.44469852311094</v>
+        <v>11.77325506032369</v>
       </c>
       <c r="F207">
-        <v>2.028060142463834E-09</v>
+        <v>22.19959587520907</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>23.80191062827478</v>
+        <v>6.146524657379486</v>
       </c>
       <c r="C208">
-        <v>5.719335651446519</v>
+        <v>13.91039690701485</v>
       </c>
       <c r="D208">
-        <v>23.83402579933025</v>
+        <v>17.40986206104824</v>
       </c>
       <c r="E208">
-        <v>11.41744487735381</v>
+        <v>11.7676393989182</v>
       </c>
       <c r="F208">
-        <v>-1.278291345672193E-09</v>
+        <v>22.18420436564884</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>23.73962935688168</v>
+        <v>6.139613719932611</v>
       </c>
       <c r="C209">
-        <v>5.684251955096619</v>
+        <v>13.90377702508567</v>
       </c>
       <c r="D209">
-        <v>23.76564246371742</v>
+        <v>17.37161861056182</v>
       </c>
       <c r="E209">
-        <v>11.39022369475774</v>
+        <v>11.7620249746843</v>
       </c>
       <c r="F209">
-        <v>9.845094536069661E-09</v>
+        <v>22.1688146394923</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>23.67739613598804</v>
+        <v>6.132707874837726</v>
       </c>
       <c r="C210">
-        <v>5.6492642588807</v>
+        <v>13.89715829514343</v>
       </c>
       <c r="D210">
-        <v>23.69732066040733</v>
+        <v>17.33339905879862</v>
       </c>
       <c r="E210">
-        <v>11.36303499091141</v>
+        <v>11.75641178797555</v>
       </c>
       <c r="F210">
-        <v>3.309275150998357E-09</v>
+        <v>22.15342669851104</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>23.61521101253483</v>
+        <v>6.125807122046716</v>
       </c>
       <c r="C211">
-        <v>5.614372872451915</v>
+        <v>13.89054071766583</v>
       </c>
       <c r="D211">
-        <v>23.62906042803759</v>
+        <v>17.29520346536738</v>
       </c>
       <c r="E211">
-        <v>11.33587878141419</v>
+        <v>11.75079983914458</v>
       </c>
       <c r="F211">
-        <v>-2.350145573091329E-09</v>
+        <v>22.13804054447386</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>23.55307403379875</v>
+        <v>6.118911461506186</v>
       </c>
       <c r="C212">
-        <v>5.579578106354671</v>
+        <v>13.88392429312979</v>
       </c>
       <c r="D212">
-        <v>23.56086180561162</v>
+        <v>17.25703189005748</v>
       </c>
       <c r="E212">
-        <v>11.30875508188565</v>
+        <v>11.74518912854353</v>
       </c>
       <c r="F212">
-        <v>8.394097047811382E-09</v>
+        <v>22.12265617914851</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>23.49098524739401</v>
+        <v>6.112020893155595</v>
       </c>
       <c r="C213">
-        <v>5.544880272072227</v>
+        <v>13.8773090220094</v>
       </c>
       <c r="D213">
-        <v>23.49272483249404</v>
+        <v>17.21888439283402</v>
       </c>
       <c r="E213">
-        <v>11.2816639079619</v>
+        <v>11.7395796565243</v>
       </c>
       <c r="F213">
-        <v>4.540507847419375E-09</v>
+        <v>22.10727360429965</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>23.4289447012735</v>
+        <v>6.105135416928663</v>
       </c>
       <c r="C214">
-        <v>5.510279682004074</v>
+        <v>13.87069490478147</v>
       </c>
       <c r="D214">
-        <v>23.42464954843578</v>
+        <v>17.18076103383692</v>
       </c>
       <c r="E214">
-        <v>11.2546052752974</v>
+        <v>11.7339714234382</v>
       </c>
       <c r="F214">
-        <v>-2.876472646992795E-09</v>
+        <v>22.09189282169209</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>23.36695244373347</v>
+        <v>6.098255032753717</v>
       </c>
       <c r="C215">
-        <v>5.475776649424385</v>
+        <v>13.86408194192189</v>
       </c>
       <c r="D215">
-        <v>23.35663599357026</v>
+        <v>17.14266187338315</v>
       </c>
       <c r="E215">
-        <v>11.22757919956845</v>
+        <v>11.72836442963605</v>
       </c>
       <c r="F215">
-        <v>6.486026834941517E-09</v>
+        <v>22.07651383308895</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>23.30500852341529</v>
+        <v>6.091379740552441</v>
       </c>
       <c r="C216">
-        <v>5.441371488536332</v>
+        <v>13.85747013390502</v>
       </c>
       <c r="D216">
-        <v>23.28868420840967</v>
+        <v>17.10458697197088</v>
       </c>
       <c r="E216">
-        <v>11.20058569646841</v>
+        <v>11.7227586754688</v>
       </c>
       <c r="F216">
-        <v>5.525369060703993E-09</v>
+        <v>22.06113664025222</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>23.24311298930727</v>
+        <v>6.084509540242117</v>
       </c>
       <c r="C217">
-        <v>5.407064514405096</v>
+        <v>13.85085948120558</v>
       </c>
       <c r="D217">
-        <v>23.22079423386804</v>
+        <v>17.06653639027563</v>
       </c>
       <c r="E217">
-        <v>11.1736247817182</v>
+        <v>11.71715416128688</v>
       </c>
       <c r="F217">
-        <v>-2.944543926106179E-09</v>
+        <v>22.04576124494444</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>23.18126589074589</v>
+        <v>6.077644431734495</v>
       </c>
       <c r="C218">
-        <v>5.372856042968746</v>
+        <v>13.84424998429873</v>
       </c>
       <c r="D218">
-        <v>23.15296611125729</v>
+        <v>17.0285101891484</v>
       </c>
       <c r="E218">
-        <v>11.14669647106255</v>
+        <v>11.71155088743993</v>
       </c>
       <c r="F218">
-        <v>4.426158445637346E-09</v>
+        <v>22.03038764892663</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>23.11946727742172</v>
+        <v>6.0707844149354</v>
       </c>
       <c r="C219">
-        <v>5.338746391046619</v>
+        <v>13.83764164365905</v>
       </c>
       <c r="D219">
-        <v>23.08519988228407</v>
+        <v>16.99050842962376</v>
       </c>
       <c r="E219">
-        <v>11.1198007802624</v>
+        <v>11.70594885427811</v>
       </c>
       <c r="F219">
-        <v>6.130792798090583E-09</v>
+        <v>22.01501585396084</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>23.05771719937933</v>
+        <v>6.063929489746643</v>
       </c>
       <c r="C220">
-        <v>5.304735876272003</v>
+        <v>13.83103445976056</v>
       </c>
       <c r="D220">
-        <v>23.01749558907169</v>
+        <v>16.95253117291498</v>
       </c>
       <c r="E220">
-        <v>11.09293772510741</v>
+        <v>11.70034806215114</v>
       </c>
       <c r="F220">
-        <v>-3.463969130902969E-09</v>
+        <v>21.99964586180882</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>22.99601570701986</v>
+        <v>6.05707965606466</v>
       </c>
       <c r="C221">
-        <v>5.270824817146774</v>
+        <v>13.82442843307782</v>
       </c>
       <c r="D221">
-        <v>22.94985327415576</v>
+        <v>16.91457848041478</v>
       </c>
       <c r="E221">
-        <v>11.06610732141922</v>
+        <v>11.69474851140794</v>
       </c>
       <c r="F221">
-        <v>2.432437968117795E-09</v>
+        <v>21.98427767423259</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>22.93436285110389</v>
+        <v>6.050234913780785</v>
       </c>
       <c r="C222">
-        <v>5.2370135329809</v>
+        <v>13.81782356408515</v>
       </c>
       <c r="D222">
-        <v>22.88227298048305</v>
+        <v>16.87665041369705</v>
       </c>
       <c r="E222">
-        <v>11.03930958504321</v>
+        <v>11.68915020239788</v>
       </c>
       <c r="F222">
-        <v>6.36496422024788E-09</v>
+        <v>21.96891129299507</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>22.87275868275422</v>
+        <v>6.043395262782257</v>
       </c>
       <c r="C223">
-        <v>5.203302343877875</v>
+        <v>13.81121985325669</v>
       </c>
       <c r="D223">
-        <v>22.81475475143001</v>
+        <v>16.83874703451744</v>
       </c>
       <c r="E223">
-        <v>11.01254453183408</v>
+        <v>11.68355313546998</v>
       </c>
       <c r="F223">
-        <v>-3.227859314936717E-09</v>
+        <v>21.95354671985901</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>22.81120325345782</v>
+        <v>6.036560702951248</v>
       </c>
       <c r="C224">
-        <v>5.169691570757576</v>
+        <v>13.80461730106673</v>
       </c>
       <c r="D224">
-        <v>22.74729863079961</v>
+        <v>16.80086840481307</v>
       </c>
       <c r="E224">
-        <v>10.98581217769609</v>
+        <v>11.67795731097284</v>
       </c>
       <c r="F224">
-        <v>6.318538453710744E-10</v>
+        <v>21.93818395658901</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>22.74969661506936</v>
+        <v>6.029731234165531</v>
       </c>
       <c r="C225">
-        <v>5.136181535285343</v>
+        <v>13.7980159079896</v>
       </c>
       <c r="D225">
-        <v>22.67990466282244</v>
+        <v>16.76301458670298</v>
       </c>
       <c r="E225">
-        <v>10.95911253855556</v>
+        <v>11.67236272925515</v>
       </c>
       <c r="F225">
-        <v>6.258152528795614E-09</v>
+        <v>21.92282300495074</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>22.68823881981188</v>
+        <v>6.022906856298646</v>
       </c>
       <c r="C226">
-        <v>5.102772559901138</v>
+        <v>13.79141567449952</v>
       </c>
       <c r="D226">
-        <v>22.61257289217096</v>
+        <v>16.7251856424893</v>
       </c>
       <c r="E226">
-        <v>10.93244563035853</v>
+        <v>11.66676939066538</v>
       </c>
       <c r="F226">
-        <v>-2.36350156196319E-09</v>
+        <v>21.9074638667105</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>22.62682992028049</v>
+        <v>6.016087569219393</v>
       </c>
       <c r="C227">
-        <v>5.069464967784678</v>
+        <v>13.78481660107078</v>
       </c>
       <c r="D227">
-        <v>22.54530336395838</v>
+        <v>16.68738163465721</v>
       </c>
       <c r="E227">
-        <v>10.9058114690796</v>
+        <v>11.66117729555187</v>
       </c>
       <c r="F227">
-        <v>-9.295274053695083E-10</v>
+        <v>21.89210654363451</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>22.5654699694452</v>
+        <v>6.009273372792646</v>
       </c>
       <c r="C228">
-        <v>5.036259082812606</v>
+        <v>13.77821868817788</v>
       </c>
       <c r="D228">
-        <v>22.47809612374106</v>
+        <v>16.64960262587489</v>
       </c>
       <c r="E228">
-        <v>10.87921007073003</v>
+        <v>11.65558644426286</v>
       </c>
       <c r="F228">
-        <v>5.855615004095444E-09</v>
+        <v>21.87675103749303</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>22.50415902065362</v>
+        <v>6.002464266878981</v>
       </c>
       <c r="C229">
-        <v>5.003155229589712</v>
+        <v>13.77162193629536</v>
       </c>
       <c r="D229">
-        <v>22.41095121752963</v>
+        <v>16.61184867899497</v>
       </c>
       <c r="E229">
-        <v>10.85264145134665</v>
+        <v>11.64999683714651</v>
       </c>
       <c r="F229">
-        <v>-1.181020080565403E-09</v>
+        <v>21.86139735005733</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>22.44289712763151</v>
+        <v>5.995660251334598</v>
       </c>
       <c r="C230">
-        <v>4.97015373338055</v>
+        <v>13.76502634589749</v>
       </c>
       <c r="D230">
-        <v>22.34386869178957</v>
+        <v>16.57411985705453</v>
       </c>
       <c r="E230">
-        <v>10.82610562698725</v>
+        <v>11.64440847455084</v>
       </c>
       <c r="F230">
-        <v>-2.066682093716259E-09</v>
+        <v>21.84604548309844</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>22.38168434448703</v>
+        <v>5.988861326011904</v>
       </c>
       <c r="C231">
-        <v>4.937254920109235</v>
+        <v>13.75843191745906</v>
       </c>
       <c r="D231">
-        <v>22.27684859344394</v>
+        <v>16.5364162232752</v>
       </c>
       <c r="E231">
-        <v>10.79960261374801</v>
+        <v>11.6388213568238</v>
       </c>
       <c r="F231">
-        <v>5.683220437362645E-09</v>
+        <v>21.83069543838888</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>22.32052072571447</v>
+        <v>5.98206749075911</v>
       </c>
       <c r="C232">
-        <v>4.90445911635138</v>
+        <v>13.75183865145483</v>
       </c>
       <c r="D232">
-        <v>22.20989096988299</v>
+        <v>16.49873784106337</v>
       </c>
       <c r="E232">
-        <v>10.77313242775186</v>
+        <v>11.63323548431333</v>
       </c>
       <c r="F232">
-        <v>9.135565631744866E-11</v>
+        <v>21.81534721770533</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>22.25940632619411</v>
+        <v>5.97527874542032</v>
       </c>
       <c r="C233">
-        <v>4.871766649266242</v>
+        <v>13.74524654835948</v>
       </c>
       <c r="D233">
-        <v>22.14299586896551</v>
+        <v>16.46108477401186</v>
       </c>
       <c r="E233">
-        <v>10.74669508514985</v>
+        <v>11.62765085736723</v>
       </c>
       <c r="F233">
-        <v>-2.798503890897932E-09</v>
+        <v>21.80000082282558</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>22.19834120119592</v>
+        <v>5.968495089835907</v>
       </c>
       <c r="C234">
-        <v>4.839177846632059</v>
+        <v>13.73865560864791</v>
       </c>
       <c r="D234">
-        <v>22.07616333902199</v>
+        <v>16.42345708589932</v>
       </c>
       <c r="E234">
-        <v>10.72029060212216</v>
+        <v>11.62206747633319</v>
       </c>
       <c r="F234">
-        <v>5.329484564581321E-09</v>
+        <v>21.78465625552679</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>22.13732540638268</v>
+        <v>5.961716523842123</v>
       </c>
       <c r="C235">
-        <v>4.806693036780202</v>
+        <v>13.73206583279518</v>
       </c>
       <c r="D235">
-        <v>22.00939342886296</v>
+        <v>16.38585484069003</v>
       </c>
       <c r="E235">
-        <v>10.6939189948814</v>
+        <v>11.61648534155896</v>
       </c>
       <c r="F235">
-        <v>1.292620904166397E-09</v>
+        <v>21.76931351758979</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>22.07635899781371</v>
+        <v>5.954943047271385</v>
       </c>
       <c r="C236">
-        <v>4.774312548572331</v>
+        <v>13.72547722127642</v>
       </c>
       <c r="D236">
-        <v>21.94268618778103</v>
+        <v>16.34827810253597</v>
       </c>
       <c r="E236">
-        <v>10.66758027966963</v>
+        <v>11.61090445339215</v>
       </c>
       <c r="F236">
-        <v>-4.338705445973281E-09</v>
+        <v>21.75397261079779</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>22.01544203194398</v>
+        <v>5.948174659952353</v>
       </c>
       <c r="C237">
-        <v>4.74203671140814</v>
+        <v>13.7188897745668</v>
       </c>
       <c r="D237">
-        <v>21.87604166555467</v>
+        <v>16.3107269357761</v>
       </c>
       <c r="E237">
-        <v>10.6412744727549</v>
+        <v>11.60532481218028</v>
       </c>
       <c r="F237">
-        <v>7.928197313308287E-09</v>
+        <v>21.73863353693568</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>21.95457456562935</v>
+        <v>5.941411361709678</v>
       </c>
       <c r="C238">
-        <v>4.709865855148223</v>
+        <v>13.71230349314174</v>
       </c>
       <c r="D238">
-        <v>21.80945991245502</v>
+        <v>16.27320140493687</v>
       </c>
       <c r="E238">
-        <v>10.61500159044017</v>
+        <v>11.59974641827091</v>
       </c>
       <c r="F238">
-        <v>3.016955812575708E-09</v>
+        <v>21.72329629778886</v>
       </c>
     </row>
   </sheetData>
